--- a/R/data/dictionaries/outcome/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_yearly_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272A789-A540-D647-A7A2-3E78182BF3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77151140-A6CB-1D48-B483-1F5FAFEC34BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -3267,6 +3267,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3814,7 +3815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG543"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -11022,14 +11023,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D559"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A530" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E561" sqref="E561"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A558" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -11054,7 +11057,7 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -11068,7 +11071,7 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -11082,7 +11085,7 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -11096,7 +11099,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -11110,7 +11113,7 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -11124,7 +11127,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -11138,7 +11141,7 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -11152,7 +11155,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -11166,7 +11169,7 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -11180,7 +11183,7 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -11194,7 +11197,7 @@
       <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -11208,7 +11211,7 @@
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -11222,7 +11225,7 @@
       <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -11236,7 +11239,7 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -11250,7 +11253,7 @@
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -11264,7 +11267,7 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -11278,7 +11281,7 @@
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -11292,7 +11295,7 @@
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -11306,7 +11309,7 @@
       <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -11320,7 +11323,7 @@
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -11334,7 +11337,7 @@
       <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -11348,7 +11351,7 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -11362,7 +11365,7 @@
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -11376,7 +11379,7 @@
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -11390,7 +11393,7 @@
       <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -11404,7 +11407,7 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -11418,7 +11421,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -11432,7 +11435,7 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -11446,7 +11449,7 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -11460,7 +11463,7 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -11474,7 +11477,7 @@
       <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -11488,7 +11491,7 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -11502,7 +11505,7 @@
       <c r="B34" s="3">
         <v>0</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -11516,7 +11519,7 @@
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -11530,7 +11533,7 @@
       <c r="B36" s="3">
         <v>0</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -11544,7 +11547,7 @@
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -11558,7 +11561,7 @@
       <c r="B38" s="3">
         <v>0</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -11572,7 +11575,7 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -11586,7 +11589,7 @@
       <c r="B40" s="3">
         <v>0</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -11600,7 +11603,7 @@
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -11614,7 +11617,7 @@
       <c r="B42" s="3">
         <v>0</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -11628,7 +11631,7 @@
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -11642,7 +11645,7 @@
       <c r="B44" s="3">
         <v>0</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -11656,7 +11659,7 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -11670,7 +11673,7 @@
       <c r="B46" s="3">
         <v>0</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -11684,7 +11687,7 @@
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -11698,7 +11701,7 @@
       <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -11712,7 +11715,7 @@
       <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -11726,7 +11729,7 @@
       <c r="B50" s="3">
         <v>0</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -11740,7 +11743,7 @@
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -11754,7 +11757,7 @@
       <c r="B52" s="3">
         <v>0</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -11768,7 +11771,7 @@
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -11782,7 +11785,7 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -11796,7 +11799,7 @@
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -11810,7 +11813,7 @@
       <c r="B56" s="3">
         <v>0</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -11824,7 +11827,7 @@
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -11838,7 +11841,7 @@
       <c r="B58" s="3">
         <v>0</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -11852,7 +11855,7 @@
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -11866,7 +11869,7 @@
       <c r="B60" s="3">
         <v>0</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -11880,7 +11883,7 @@
       <c r="B61" s="3">
         <v>1</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -11894,7 +11897,7 @@
       <c r="B62" s="3">
         <v>0</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -11908,7 +11911,7 @@
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -11922,7 +11925,7 @@
       <c r="B64" s="3">
         <v>0</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -11936,7 +11939,7 @@
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -11950,7 +11953,7 @@
       <c r="B66" s="3">
         <v>0</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -11964,7 +11967,7 @@
       <c r="B67" s="3">
         <v>1</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -11978,7 +11981,7 @@
       <c r="B68" s="3">
         <v>0</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -11992,7 +11995,7 @@
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -12006,7 +12009,7 @@
       <c r="B70" s="3">
         <v>0</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -12020,7 +12023,7 @@
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -12034,7 +12037,7 @@
       <c r="B72" s="3">
         <v>0</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -12048,7 +12051,7 @@
       <c r="B73" s="3">
         <v>1</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -12062,7 +12065,7 @@
       <c r="B74" s="3">
         <v>0</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -12076,7 +12079,7 @@
       <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -12090,7 +12093,7 @@
       <c r="B76" s="3">
         <v>0</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -12104,7 +12107,7 @@
       <c r="B77" s="3">
         <v>1</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -12118,7 +12121,7 @@
       <c r="B78" s="3">
         <v>0</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -12132,7 +12135,7 @@
       <c r="B79" s="3">
         <v>1</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -12146,7 +12149,7 @@
       <c r="B80" s="3">
         <v>0</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -12160,7 +12163,7 @@
       <c r="B81" s="3">
         <v>1</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -12174,7 +12177,7 @@
       <c r="B82" s="3">
         <v>0</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -12188,7 +12191,7 @@
       <c r="B83" s="3">
         <v>1</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -12202,7 +12205,7 @@
       <c r="B84" s="3">
         <v>0</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -12216,7 +12219,7 @@
       <c r="B85" s="3">
         <v>1</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -12230,7 +12233,7 @@
       <c r="B86" s="3">
         <v>0</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -12244,7 +12247,7 @@
       <c r="B87" s="3">
         <v>1</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -12258,7 +12261,7 @@
       <c r="B88" s="3">
         <v>0</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -12272,7 +12275,7 @@
       <c r="B89" s="3">
         <v>1</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -12286,7 +12289,7 @@
       <c r="B90" s="3">
         <v>0</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -12300,7 +12303,7 @@
       <c r="B91" s="3">
         <v>1</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -12314,7 +12317,7 @@
       <c r="B92" s="3">
         <v>0</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -12328,7 +12331,7 @@
       <c r="B93" s="3">
         <v>1</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -12342,7 +12345,7 @@
       <c r="B94" s="3">
         <v>0</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -12356,7 +12359,7 @@
       <c r="B95" s="3">
         <v>1</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -12370,7 +12373,7 @@
       <c r="B96" s="3">
         <v>0</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -12384,7 +12387,7 @@
       <c r="B97" s="3">
         <v>1</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -12398,7 +12401,7 @@
       <c r="B98" s="3">
         <v>0</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -12412,7 +12415,7 @@
       <c r="B99" s="3">
         <v>1</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -12426,7 +12429,7 @@
       <c r="B100" s="3">
         <v>0</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -12440,7 +12443,7 @@
       <c r="B101" s="3">
         <v>1</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -12454,7 +12457,7 @@
       <c r="B102" s="3">
         <v>0</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -12468,7 +12471,7 @@
       <c r="B103" s="3">
         <v>1</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -12482,7 +12485,7 @@
       <c r="B104" s="3">
         <v>0</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -12496,7 +12499,7 @@
       <c r="B105" s="3">
         <v>1</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -12510,7 +12513,7 @@
       <c r="B106" s="3">
         <v>0</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -12524,7 +12527,7 @@
       <c r="B107" s="3">
         <v>1</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -12538,7 +12541,7 @@
       <c r="B108" s="3">
         <v>0</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -12552,7 +12555,7 @@
       <c r="B109" s="3">
         <v>1</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -12566,7 +12569,7 @@
       <c r="B110" s="3">
         <v>0</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D110" s="15" t="s">
@@ -12580,7 +12583,7 @@
       <c r="B111" s="3">
         <v>1</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -12594,7 +12597,7 @@
       <c r="B112" s="3">
         <v>2</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -12608,7 +12611,7 @@
       <c r="B113" s="3">
         <v>3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -12622,7 +12625,7 @@
       <c r="B114" s="3">
         <v>4</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -12636,7 +12639,7 @@
       <c r="B115" s="3">
         <v>0</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D115" s="15" t="s">
@@ -12650,7 +12653,7 @@
       <c r="B116" s="3">
         <v>1</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -12664,7 +12667,7 @@
       <c r="B117" s="3">
         <v>2</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -12678,7 +12681,7 @@
       <c r="B118" s="3">
         <v>3</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -12692,7 +12695,7 @@
       <c r="B119" s="3">
         <v>4</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -12706,7 +12709,7 @@
       <c r="B120" s="3">
         <v>0</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D120" s="15" t="s">
@@ -12720,7 +12723,7 @@
       <c r="B121" s="3">
         <v>1</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -12734,7 +12737,7 @@
       <c r="B122" s="3">
         <v>2</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -12748,7 +12751,7 @@
       <c r="B123" s="3">
         <v>3</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -12762,7 +12765,7 @@
       <c r="B124" s="3">
         <v>4</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -12776,7 +12779,7 @@
       <c r="B125" s="3">
         <v>0</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D125" s="15" t="s">
@@ -12790,7 +12793,7 @@
       <c r="B126" s="3">
         <v>1</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -12804,7 +12807,7 @@
       <c r="B127" s="3">
         <v>2</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -12818,7 +12821,7 @@
       <c r="B128" s="3">
         <v>3</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -12832,7 +12835,7 @@
       <c r="B129" s="3">
         <v>4</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -12846,7 +12849,7 @@
       <c r="B130" s="3">
         <v>0</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D130" s="15" t="s">
@@ -12860,7 +12863,7 @@
       <c r="B131" s="3">
         <v>1</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -12874,7 +12877,7 @@
       <c r="B132" s="3">
         <v>2</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -12888,7 +12891,7 @@
       <c r="B133" s="3">
         <v>3</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -12902,7 +12905,7 @@
       <c r="B134" s="3">
         <v>4</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -12916,7 +12919,7 @@
       <c r="B135" s="3">
         <v>0</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D135" s="15" t="s">
@@ -12930,7 +12933,7 @@
       <c r="B136" s="3">
         <v>1</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -12944,7 +12947,7 @@
       <c r="B137" s="3">
         <v>2</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -12958,7 +12961,7 @@
       <c r="B138" s="3">
         <v>3</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -12972,7 +12975,7 @@
       <c r="B139" s="3">
         <v>4</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -12986,7 +12989,7 @@
       <c r="B140" s="3">
         <v>0</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D140" s="15" t="s">
@@ -13000,7 +13003,7 @@
       <c r="B141" s="3">
         <v>1</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -13014,7 +13017,7 @@
       <c r="B142" s="3">
         <v>2</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -13028,7 +13031,7 @@
       <c r="B143" s="3">
         <v>3</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D143" s="6" t="s">
@@ -13042,7 +13045,7 @@
       <c r="B144" s="3">
         <v>4</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -13056,7 +13059,7 @@
       <c r="B145" s="3">
         <v>0</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D145" s="15" t="s">
@@ -13070,7 +13073,7 @@
       <c r="B146" s="3">
         <v>1</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
@@ -13084,7 +13087,7 @@
       <c r="B147" s="3">
         <v>2</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -13098,7 +13101,7 @@
       <c r="B148" s="3">
         <v>3</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -13112,7 +13115,7 @@
       <c r="B149" s="3">
         <v>4</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -13126,7 +13129,7 @@
       <c r="B150" s="3">
         <v>0</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D150" s="15" t="s">
@@ -13140,7 +13143,7 @@
       <c r="B151" s="3">
         <v>1</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -13154,7 +13157,7 @@
       <c r="B152" s="3">
         <v>2</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
@@ -13168,7 +13171,7 @@
       <c r="B153" s="3">
         <v>3</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -13182,7 +13185,7 @@
       <c r="B154" s="3">
         <v>4</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
@@ -13196,7 +13199,7 @@
       <c r="B155" s="3">
         <v>0</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D155" s="15" t="s">
@@ -13210,7 +13213,7 @@
       <c r="B156" s="3">
         <v>1</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D156" s="3" t="s">
@@ -13224,7 +13227,7 @@
       <c r="B157" s="3">
         <v>2</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
@@ -13238,7 +13241,7 @@
       <c r="B158" s="3">
         <v>3</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D158" s="6" t="s">
@@ -13252,7 +13255,7 @@
       <c r="B159" s="3">
         <v>4</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
@@ -13266,7 +13269,7 @@
       <c r="B160" s="3">
         <v>0</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D160" s="15" t="s">
@@ -13280,7 +13283,7 @@
       <c r="B161" s="3">
         <v>1</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -13294,7 +13297,7 @@
       <c r="B162" s="3">
         <v>2</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
@@ -13308,7 +13311,7 @@
       <c r="B163" s="3">
         <v>3</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -13322,7 +13325,7 @@
       <c r="B164" s="3">
         <v>4</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -13336,7 +13339,7 @@
       <c r="B165" s="3">
         <v>0</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D165" s="15" t="s">
@@ -13350,7 +13353,7 @@
       <c r="B166" s="3">
         <v>1</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
@@ -13364,7 +13367,7 @@
       <c r="B167" s="3">
         <v>2</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
@@ -13378,7 +13381,7 @@
       <c r="B168" s="3">
         <v>3</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D168" s="6" t="s">
@@ -13392,7 +13395,7 @@
       <c r="B169" s="3">
         <v>4</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
@@ -13406,7 +13409,7 @@
       <c r="B170" s="3">
         <v>0</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D170" s="15" t="s">
@@ -13420,7 +13423,7 @@
       <c r="B171" s="3">
         <v>1</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
@@ -13434,7 +13437,7 @@
       <c r="B172" s="3">
         <v>2</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -13448,7 +13451,7 @@
       <c r="B173" s="3">
         <v>3</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -13462,7 +13465,7 @@
       <c r="B174" s="3">
         <v>4</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -13476,7 +13479,7 @@
       <c r="B175" s="3">
         <v>0</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D175" s="15" t="s">
@@ -13490,7 +13493,7 @@
       <c r="B176" s="3">
         <v>1</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D176" s="3" t="s">
@@ -13504,7 +13507,7 @@
       <c r="B177" s="3">
         <v>2</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
@@ -13518,7 +13521,7 @@
       <c r="B178" s="3">
         <v>3</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -13532,7 +13535,7 @@
       <c r="B179" s="3">
         <v>4</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
@@ -13546,7 +13549,7 @@
       <c r="B180" s="3">
         <v>0</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D180" s="15" t="s">
@@ -13560,7 +13563,7 @@
       <c r="B181" s="3">
         <v>1</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -13574,7 +13577,7 @@
       <c r="B182" s="3">
         <v>2</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
@@ -13588,7 +13591,7 @@
       <c r="B183" s="3">
         <v>3</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D183" s="6" t="s">
@@ -13602,7 +13605,7 @@
       <c r="B184" s="3">
         <v>4</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D184" s="3" t="s">
@@ -13616,7 +13619,7 @@
       <c r="B185" s="3">
         <v>0</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D185" s="15" t="s">
@@ -13630,7 +13633,7 @@
       <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -13644,7 +13647,7 @@
       <c r="B187" s="3">
         <v>2</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D187" s="3" t="s">
@@ -13658,7 +13661,7 @@
       <c r="B188" s="3">
         <v>3</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -13672,7 +13675,7 @@
       <c r="B189" s="3">
         <v>4</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
@@ -13686,7 +13689,7 @@
       <c r="B190" s="3">
         <v>0</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D190" s="15" t="s">
@@ -13700,7 +13703,7 @@
       <c r="B191" s="3">
         <v>1</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
@@ -13714,7 +13717,7 @@
       <c r="B192" s="3">
         <v>2</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D192" s="3" t="s">
@@ -13728,7 +13731,7 @@
       <c r="B193" s="3">
         <v>3</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D193" s="6" t="s">
@@ -13742,7 +13745,7 @@
       <c r="B194" s="3">
         <v>4</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
@@ -13756,7 +13759,7 @@
       <c r="B195" s="3">
         <v>0</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D195" s="15" t="s">
@@ -13770,7 +13773,7 @@
       <c r="B196" s="3">
         <v>1</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C196" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
@@ -13784,7 +13787,7 @@
       <c r="B197" s="3">
         <v>2</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -13798,7 +13801,7 @@
       <c r="B198" s="3">
         <v>3</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C198" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D198" s="6" t="s">
@@ -13812,7 +13815,7 @@
       <c r="B199" s="3">
         <v>4</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
@@ -13826,7 +13829,7 @@
       <c r="B200" s="3">
         <v>0</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -13840,7 +13843,7 @@
       <c r="B201" s="3">
         <v>1</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -13854,7 +13857,7 @@
       <c r="B202" s="3">
         <v>0</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C202" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -13868,7 +13871,7 @@
       <c r="B203" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -13882,7 +13885,7 @@
       <c r="B204" s="3">
         <v>0</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -13896,7 +13899,7 @@
       <c r="B205" s="3">
         <v>1</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -13910,7 +13913,7 @@
       <c r="B206" s="3">
         <v>0</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C206" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -13924,7 +13927,7 @@
       <c r="B207" s="3">
         <v>1</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -13938,7 +13941,7 @@
       <c r="B208" s="3">
         <v>0</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -13952,7 +13955,7 @@
       <c r="B209" s="3">
         <v>1</v>
       </c>
-      <c r="C209" s="6">
+      <c r="C209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -13966,7 +13969,7 @@
       <c r="B210" s="3">
         <v>0</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -13980,7 +13983,7 @@
       <c r="B211" s="3">
         <v>1</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -13994,7 +13997,7 @@
       <c r="B212" s="3">
         <v>0</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -14008,7 +14011,7 @@
       <c r="B213" s="3">
         <v>1</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -14022,7 +14025,7 @@
       <c r="B214" s="3">
         <v>0</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -14036,7 +14039,7 @@
       <c r="B215" s="3">
         <v>1</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -14050,7 +14053,7 @@
       <c r="B216" s="3">
         <v>0</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -14064,7 +14067,7 @@
       <c r="B217" s="3">
         <v>1</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -14078,7 +14081,7 @@
       <c r="B218" s="3">
         <v>0</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -14092,7 +14095,7 @@
       <c r="B219" s="3">
         <v>1</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -14106,7 +14109,7 @@
       <c r="B220" s="3">
         <v>0</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -14120,7 +14123,7 @@
       <c r="B221" s="3">
         <v>1</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -14134,7 +14137,7 @@
       <c r="B222" s="3">
         <v>0</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -14148,7 +14151,7 @@
       <c r="B223" s="3">
         <v>1</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -14162,7 +14165,7 @@
       <c r="B224" s="3">
         <v>0</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -14176,7 +14179,7 @@
       <c r="B225" s="3">
         <v>1</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -14190,7 +14193,7 @@
       <c r="B226" s="3">
         <v>0</v>
       </c>
-      <c r="C226" s="6">
+      <c r="C226" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -14204,7 +14207,7 @@
       <c r="B227" s="3">
         <v>1</v>
       </c>
-      <c r="C227" s="6">
+      <c r="C227" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -14218,7 +14221,7 @@
       <c r="B228" s="3">
         <v>0</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -14232,7 +14235,7 @@
       <c r="B229" s="3">
         <v>1</v>
       </c>
-      <c r="C229" s="6">
+      <c r="C229" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -14246,7 +14249,7 @@
       <c r="B230" s="3">
         <v>0</v>
       </c>
-      <c r="C230" s="6">
+      <c r="C230" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -14260,7 +14263,7 @@
       <c r="B231" s="3">
         <v>1</v>
       </c>
-      <c r="C231" s="6">
+      <c r="C231" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -14274,7 +14277,7 @@
       <c r="B232" s="3">
         <v>0</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C232" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -14288,7 +14291,7 @@
       <c r="B233" s="3">
         <v>1</v>
       </c>
-      <c r="C233" s="6">
+      <c r="C233" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -14302,7 +14305,7 @@
       <c r="B234" s="3">
         <v>0</v>
       </c>
-      <c r="C234" s="6">
+      <c r="C234" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -14316,7 +14319,7 @@
       <c r="B235" s="3">
         <v>1</v>
       </c>
-      <c r="C235" s="6">
+      <c r="C235" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -14330,7 +14333,7 @@
       <c r="B236" s="3">
         <v>0</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -14344,7 +14347,7 @@
       <c r="B237" s="3">
         <v>1</v>
       </c>
-      <c r="C237" s="6">
+      <c r="C237" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -14358,7 +14361,7 @@
       <c r="B238" s="3">
         <v>0</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -14372,7 +14375,7 @@
       <c r="B239" s="3">
         <v>1</v>
       </c>
-      <c r="C239" s="6">
+      <c r="C239" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -14386,7 +14389,7 @@
       <c r="B240" s="3">
         <v>0</v>
       </c>
-      <c r="C240" s="6">
+      <c r="C240" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -14400,7 +14403,7 @@
       <c r="B241" s="3">
         <v>1</v>
       </c>
-      <c r="C241" s="6">
+      <c r="C241" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -14414,7 +14417,7 @@
       <c r="B242" s="3">
         <v>0</v>
       </c>
-      <c r="C242" s="6">
+      <c r="C242" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -14428,7 +14431,7 @@
       <c r="B243" s="3">
         <v>1</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -14442,7 +14445,7 @@
       <c r="B244" s="3">
         <v>0</v>
       </c>
-      <c r="C244" s="6">
+      <c r="C244" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -14456,7 +14459,7 @@
       <c r="B245" s="3">
         <v>1</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -14470,7 +14473,7 @@
       <c r="B246" s="3">
         <v>0</v>
       </c>
-      <c r="C246" s="6">
+      <c r="C246" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -14484,7 +14487,7 @@
       <c r="B247" s="3">
         <v>1</v>
       </c>
-      <c r="C247" s="6">
+      <c r="C247" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -14498,7 +14501,7 @@
       <c r="B248" s="3">
         <v>0</v>
       </c>
-      <c r="C248" s="6">
+      <c r="C248" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -14512,7 +14515,7 @@
       <c r="B249" s="3">
         <v>1</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -14526,7 +14529,7 @@
       <c r="B250" s="3">
         <v>0</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -14540,7 +14543,7 @@
       <c r="B251" s="3">
         <v>1</v>
       </c>
-      <c r="C251" s="6">
+      <c r="C251" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -14554,7 +14557,7 @@
       <c r="B252" s="3">
         <v>0</v>
       </c>
-      <c r="C252" s="6">
+      <c r="C252" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -14568,7 +14571,7 @@
       <c r="B253" s="3">
         <v>1</v>
       </c>
-      <c r="C253" s="6">
+      <c r="C253" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -14582,7 +14585,7 @@
       <c r="B254" s="3">
         <v>0</v>
       </c>
-      <c r="C254" s="6">
+      <c r="C254" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D254" s="2" t="s">
@@ -14596,7 +14599,7 @@
       <c r="B255" s="3">
         <v>1</v>
       </c>
-      <c r="C255" s="6">
+      <c r="C255" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -14610,7 +14613,7 @@
       <c r="B256" s="3">
         <v>0</v>
       </c>
-      <c r="C256" s="6">
+      <c r="C256" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -14624,7 +14627,7 @@
       <c r="B257" s="3">
         <v>1</v>
       </c>
-      <c r="C257" s="6">
+      <c r="C257" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -14638,7 +14641,7 @@
       <c r="B258" s="3">
         <v>0</v>
       </c>
-      <c r="C258" s="6">
+      <c r="C258" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -14652,7 +14655,7 @@
       <c r="B259" s="3">
         <v>1</v>
       </c>
-      <c r="C259" s="6">
+      <c r="C259" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D259" s="2" t="s">
@@ -14666,7 +14669,7 @@
       <c r="B260" s="3">
         <v>0</v>
       </c>
-      <c r="C260" s="6">
+      <c r="C260" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -14680,7 +14683,7 @@
       <c r="B261" s="3">
         <v>1</v>
       </c>
-      <c r="C261" s="6">
+      <c r="C261" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D261" s="2" t="s">
@@ -14694,7 +14697,7 @@
       <c r="B262" s="3">
         <v>0</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D262" s="2" t="s">
@@ -14708,7 +14711,7 @@
       <c r="B263" s="3">
         <v>1</v>
       </c>
-      <c r="C263" s="6">
+      <c r="C263" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -14722,7 +14725,7 @@
       <c r="B264" s="3">
         <v>0</v>
       </c>
-      <c r="C264" s="6">
+      <c r="C264" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D264" s="2" t="s">
@@ -14736,7 +14739,7 @@
       <c r="B265" s="3">
         <v>1</v>
       </c>
-      <c r="C265" s="6">
+      <c r="C265" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D265" s="2" t="s">
@@ -14750,7 +14753,7 @@
       <c r="B266" s="3">
         <v>0</v>
       </c>
-      <c r="C266" s="6">
+      <c r="C266" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -14764,7 +14767,7 @@
       <c r="B267" s="3">
         <v>1</v>
       </c>
-      <c r="C267" s="6">
+      <c r="C267" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -14778,7 +14781,7 @@
       <c r="B268" s="3">
         <v>0</v>
       </c>
-      <c r="C268" s="6">
+      <c r="C268" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D268" s="2" t="s">
@@ -14792,7 +14795,7 @@
       <c r="B269" s="3">
         <v>1</v>
       </c>
-      <c r="C269" s="6">
+      <c r="C269" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -14806,7 +14809,7 @@
       <c r="B270" s="3">
         <v>0</v>
       </c>
-      <c r="C270" s="6">
+      <c r="C270" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D270" s="2" t="s">
@@ -14820,7 +14823,7 @@
       <c r="B271" s="3">
         <v>1</v>
       </c>
-      <c r="C271" s="6">
+      <c r="C271" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D271" s="2" t="s">
@@ -14834,7 +14837,7 @@
       <c r="B272" s="3">
         <v>0</v>
       </c>
-      <c r="C272" s="6">
+      <c r="C272" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -14848,7 +14851,7 @@
       <c r="B273" s="3">
         <v>1</v>
       </c>
-      <c r="C273" s="6">
+      <c r="C273" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D273" s="2" t="s">
@@ -14862,7 +14865,7 @@
       <c r="B274" s="3">
         <v>0</v>
       </c>
-      <c r="C274" s="6">
+      <c r="C274" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -14876,7 +14879,7 @@
       <c r="B275" s="3">
         <v>1</v>
       </c>
-      <c r="C275" s="6">
+      <c r="C275" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -14890,7 +14893,7 @@
       <c r="B276" s="3">
         <v>0</v>
       </c>
-      <c r="C276" s="6">
+      <c r="C276" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -14904,7 +14907,7 @@
       <c r="B277" s="3">
         <v>1</v>
       </c>
-      <c r="C277" s="6">
+      <c r="C277" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D277" s="2" t="s">
@@ -14918,7 +14921,7 @@
       <c r="B278" s="3">
         <v>0</v>
       </c>
-      <c r="C278" s="6">
+      <c r="C278" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -14932,7 +14935,7 @@
       <c r="B279" s="3">
         <v>1</v>
       </c>
-      <c r="C279" s="6">
+      <c r="C279" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -14946,7 +14949,7 @@
       <c r="B280" s="3">
         <v>0</v>
       </c>
-      <c r="C280" s="6">
+      <c r="C280" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -14960,7 +14963,7 @@
       <c r="B281" s="3">
         <v>1</v>
       </c>
-      <c r="C281" s="6">
+      <c r="C281" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -14974,7 +14977,7 @@
       <c r="B282" s="3">
         <v>0</v>
       </c>
-      <c r="C282" s="6">
+      <c r="C282" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -14988,7 +14991,7 @@
       <c r="B283" s="3">
         <v>1</v>
       </c>
-      <c r="C283" s="6">
+      <c r="C283" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D283" s="2" t="s">
@@ -15002,7 +15005,7 @@
       <c r="B284" s="3">
         <v>0</v>
       </c>
-      <c r="C284" s="6">
+      <c r="C284" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -15016,7 +15019,7 @@
       <c r="B285" s="3">
         <v>1</v>
       </c>
-      <c r="C285" s="6">
+      <c r="C285" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -15030,7 +15033,7 @@
       <c r="B286" s="3">
         <v>0</v>
       </c>
-      <c r="C286" s="6">
+      <c r="C286" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -15044,7 +15047,7 @@
       <c r="B287" s="3">
         <v>1</v>
       </c>
-      <c r="C287" s="6">
+      <c r="C287" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -15058,7 +15061,7 @@
       <c r="B288" s="3">
         <v>0</v>
       </c>
-      <c r="C288" s="6">
+      <c r="C288" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -15072,7 +15075,7 @@
       <c r="B289" s="3">
         <v>1</v>
       </c>
-      <c r="C289" s="6">
+      <c r="C289" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -15086,7 +15089,7 @@
       <c r="B290" s="3">
         <v>0</v>
       </c>
-      <c r="C290" s="6">
+      <c r="C290" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -15100,7 +15103,7 @@
       <c r="B291" s="3">
         <v>1</v>
       </c>
-      <c r="C291" s="6">
+      <c r="C291" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -15114,7 +15117,7 @@
       <c r="B292" s="3">
         <v>0</v>
       </c>
-      <c r="C292" s="6">
+      <c r="C292" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -15128,7 +15131,7 @@
       <c r="B293" s="3">
         <v>1</v>
       </c>
-      <c r="C293" s="6">
+      <c r="C293" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -15142,7 +15145,7 @@
       <c r="B294" s="3">
         <v>0</v>
       </c>
-      <c r="C294" s="6">
+      <c r="C294" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -15156,7 +15159,7 @@
       <c r="B295" s="3">
         <v>1</v>
       </c>
-      <c r="C295" s="6">
+      <c r="C295" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -15170,7 +15173,7 @@
       <c r="B296" s="3">
         <v>0</v>
       </c>
-      <c r="C296" s="6">
+      <c r="C296" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -15184,7 +15187,7 @@
       <c r="B297" s="3">
         <v>1</v>
       </c>
-      <c r="C297" s="6">
+      <c r="C297" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -15198,7 +15201,7 @@
       <c r="B298" s="3">
         <v>0</v>
       </c>
-      <c r="C298" s="6">
+      <c r="C298" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D298" s="2" t="s">
@@ -15212,7 +15215,7 @@
       <c r="B299" s="3">
         <v>1</v>
       </c>
-      <c r="C299" s="6">
+      <c r="C299" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -15226,7 +15229,7 @@
       <c r="B300" s="3">
         <v>0</v>
       </c>
-      <c r="C300" s="6">
+      <c r="C300" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D300" s="2" t="s">
@@ -15240,7 +15243,7 @@
       <c r="B301" s="3">
         <v>1</v>
       </c>
-      <c r="C301" s="6">
+      <c r="C301" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -15254,7 +15257,7 @@
       <c r="B302" s="3">
         <v>0</v>
       </c>
-      <c r="C302" s="6">
+      <c r="C302" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D302" s="2" t="s">
@@ -15268,7 +15271,7 @@
       <c r="B303" s="3">
         <v>1</v>
       </c>
-      <c r="C303" s="6">
+      <c r="C303" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -15282,7 +15285,7 @@
       <c r="B304" s="3">
         <v>0</v>
       </c>
-      <c r="C304" s="6">
+      <c r="C304" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D304" s="2" t="s">
@@ -15296,7 +15299,7 @@
       <c r="B305" s="3">
         <v>1</v>
       </c>
-      <c r="C305" s="6">
+      <c r="C305" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -15310,7 +15313,7 @@
       <c r="B306" s="3">
         <v>0</v>
       </c>
-      <c r="C306" s="6">
+      <c r="C306" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -15324,7 +15327,7 @@
       <c r="B307" s="3">
         <v>1</v>
       </c>
-      <c r="C307" s="6">
+      <c r="C307" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D307" s="2" t="s">
@@ -15338,7 +15341,7 @@
       <c r="B308" s="3">
         <v>0</v>
       </c>
-      <c r="C308" s="6">
+      <c r="C308" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D308" s="2" t="s">
@@ -15352,7 +15355,7 @@
       <c r="B309" s="3">
         <v>1</v>
       </c>
-      <c r="C309" s="6">
+      <c r="C309" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -15366,7 +15369,7 @@
       <c r="B310" s="3">
         <v>0</v>
       </c>
-      <c r="C310" s="6">
+      <c r="C310" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D310" s="2" t="s">
@@ -15380,7 +15383,7 @@
       <c r="B311" s="3">
         <v>1</v>
       </c>
-      <c r="C311" s="6">
+      <c r="C311" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -15394,7 +15397,7 @@
       <c r="B312" s="3">
         <v>0</v>
       </c>
-      <c r="C312" s="6">
+      <c r="C312" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D312" s="2" t="s">
@@ -15408,7 +15411,7 @@
       <c r="B313" s="3">
         <v>1</v>
       </c>
-      <c r="C313" s="6">
+      <c r="C313" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D313" s="2" t="s">
@@ -15422,7 +15425,7 @@
       <c r="B314" s="3">
         <v>0</v>
       </c>
-      <c r="C314" s="6">
+      <c r="C314" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D314" s="2" t="s">
@@ -15436,7 +15439,7 @@
       <c r="B315" s="3">
         <v>1</v>
       </c>
-      <c r="C315" s="6">
+      <c r="C315" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D315" s="2" t="s">
@@ -15450,7 +15453,7 @@
       <c r="B316" s="3">
         <v>0</v>
       </c>
-      <c r="C316" s="6">
+      <c r="C316" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D316" s="2" t="s">
@@ -15464,7 +15467,7 @@
       <c r="B317" s="3">
         <v>1</v>
       </c>
-      <c r="C317" s="6">
+      <c r="C317" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -15478,7 +15481,7 @@
       <c r="B318" s="3">
         <v>0</v>
       </c>
-      <c r="C318" s="6">
+      <c r="C318" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D318" s="2" t="s">
@@ -15492,7 +15495,7 @@
       <c r="B319" s="3">
         <v>1</v>
       </c>
-      <c r="C319" s="6">
+      <c r="C319" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D319" s="2" t="s">
@@ -15506,7 +15509,7 @@
       <c r="B320" s="3">
         <v>0</v>
       </c>
-      <c r="C320" s="6">
+      <c r="C320" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D320" s="2" t="s">
@@ -15520,7 +15523,7 @@
       <c r="B321" s="3">
         <v>1</v>
       </c>
-      <c r="C321" s="6">
+      <c r="C321" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D321" s="2" t="s">
@@ -15534,7 +15537,7 @@
       <c r="B322" s="3">
         <v>0</v>
       </c>
-      <c r="C322" s="6">
+      <c r="C322" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D322" s="2" t="s">
@@ -15548,7 +15551,7 @@
       <c r="B323" s="3">
         <v>1</v>
       </c>
-      <c r="C323" s="6">
+      <c r="C323" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D323" s="2" t="s">
@@ -15562,7 +15565,7 @@
       <c r="B324" s="3">
         <v>0</v>
       </c>
-      <c r="C324" s="6">
+      <c r="C324" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D324" s="2" t="s">
@@ -15576,7 +15579,7 @@
       <c r="B325" s="3">
         <v>1</v>
       </c>
-      <c r="C325" s="6">
+      <c r="C325" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D325" s="2" t="s">
@@ -15590,7 +15593,7 @@
       <c r="B326" s="3">
         <v>0</v>
       </c>
-      <c r="C326" s="6">
+      <c r="C326" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D326" s="2" t="s">
@@ -15604,7 +15607,7 @@
       <c r="B327" s="3">
         <v>1</v>
       </c>
-      <c r="C327" s="6">
+      <c r="C327" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D327" s="2" t="s">
@@ -15618,7 +15621,7 @@
       <c r="B328" s="3">
         <v>0</v>
       </c>
-      <c r="C328" s="6">
+      <c r="C328" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D328" s="2" t="s">
@@ -15632,7 +15635,7 @@
       <c r="B329" s="3">
         <v>1</v>
       </c>
-      <c r="C329" s="6">
+      <c r="C329" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D329" s="2" t="s">
@@ -15646,7 +15649,7 @@
       <c r="B330" s="3">
         <v>0</v>
       </c>
-      <c r="C330" s="6">
+      <c r="C330" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D330" s="2" t="s">
@@ -15660,7 +15663,7 @@
       <c r="B331" s="3">
         <v>1</v>
       </c>
-      <c r="C331" s="6">
+      <c r="C331" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D331" s="2" t="s">
@@ -15674,7 +15677,7 @@
       <c r="B332" s="3">
         <v>0</v>
       </c>
-      <c r="C332" s="6">
+      <c r="C332" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D332" s="2" t="s">
@@ -15688,7 +15691,7 @@
       <c r="B333" s="3">
         <v>1</v>
       </c>
-      <c r="C333" s="6">
+      <c r="C333" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D333" s="2" t="s">
@@ -15702,7 +15705,7 @@
       <c r="B334" s="3">
         <v>0</v>
       </c>
-      <c r="C334" s="6">
+      <c r="C334" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D334" s="2" t="s">
@@ -15716,7 +15719,7 @@
       <c r="B335" s="3">
         <v>1</v>
       </c>
-      <c r="C335" s="6">
+      <c r="C335" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D335" s="2" t="s">
@@ -15730,7 +15733,7 @@
       <c r="B336" s="3">
         <v>0</v>
       </c>
-      <c r="C336" s="6">
+      <c r="C336" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D336" s="2" t="s">
@@ -15744,7 +15747,7 @@
       <c r="B337" s="3">
         <v>1</v>
       </c>
-      <c r="C337" s="6">
+      <c r="C337" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D337" s="2" t="s">
@@ -15758,7 +15761,7 @@
       <c r="B338" s="3">
         <v>0</v>
       </c>
-      <c r="C338" s="6">
+      <c r="C338" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D338" s="2" t="s">
@@ -15772,7 +15775,7 @@
       <c r="B339" s="3">
         <v>1</v>
       </c>
-      <c r="C339" s="6">
+      <c r="C339" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D339" s="2" t="s">
@@ -15786,7 +15789,7 @@
       <c r="B340" s="3">
         <v>0</v>
       </c>
-      <c r="C340" s="6">
+      <c r="C340" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D340" s="2" t="s">
@@ -15800,7 +15803,7 @@
       <c r="B341" s="3">
         <v>1</v>
       </c>
-      <c r="C341" s="6">
+      <c r="C341" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D341" s="2" t="s">
@@ -15814,7 +15817,7 @@
       <c r="B342" s="3">
         <v>0</v>
       </c>
-      <c r="C342" s="6">
+      <c r="C342" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D342" s="2" t="s">
@@ -15828,7 +15831,7 @@
       <c r="B343" s="3">
         <v>1</v>
       </c>
-      <c r="C343" s="6">
+      <c r="C343" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D343" s="2" t="s">
@@ -15842,7 +15845,7 @@
       <c r="B344" s="3">
         <v>0</v>
       </c>
-      <c r="C344" s="6">
+      <c r="C344" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D344" s="2" t="s">
@@ -15856,7 +15859,7 @@
       <c r="B345" s="3">
         <v>1</v>
       </c>
-      <c r="C345" s="6">
+      <c r="C345" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D345" s="2" t="s">
@@ -15870,7 +15873,7 @@
       <c r="B346" s="3">
         <v>0</v>
       </c>
-      <c r="C346" s="6">
+      <c r="C346" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D346" s="2" t="s">
@@ -15884,7 +15887,7 @@
       <c r="B347" s="3">
         <v>1</v>
       </c>
-      <c r="C347" s="6">
+      <c r="C347" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D347" s="2" t="s">
@@ -15898,7 +15901,7 @@
       <c r="B348" s="3">
         <v>0</v>
       </c>
-      <c r="C348" s="6">
+      <c r="C348" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D348" s="2" t="s">
@@ -15912,7 +15915,7 @@
       <c r="B349" s="3">
         <v>1</v>
       </c>
-      <c r="C349" s="6">
+      <c r="C349" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D349" s="2" t="s">
@@ -15926,7 +15929,7 @@
       <c r="B350" s="3">
         <v>0</v>
       </c>
-      <c r="C350" s="6">
+      <c r="C350" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D350" s="2" t="s">
@@ -15940,7 +15943,7 @@
       <c r="B351" s="3">
         <v>1</v>
       </c>
-      <c r="C351" s="6">
+      <c r="C351" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D351" s="2" t="s">
@@ -15954,7 +15957,7 @@
       <c r="B352" s="3">
         <v>0</v>
       </c>
-      <c r="C352" s="6">
+      <c r="C352" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D352" s="2" t="s">
@@ -15968,7 +15971,7 @@
       <c r="B353" s="3">
         <v>1</v>
       </c>
-      <c r="C353" s="6">
+      <c r="C353" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D353" s="2" t="s">
@@ -15982,7 +15985,7 @@
       <c r="B354" s="3">
         <v>0</v>
       </c>
-      <c r="C354" s="6">
+      <c r="C354" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D354" s="2" t="s">
@@ -15996,7 +15999,7 @@
       <c r="B355" s="3">
         <v>1</v>
       </c>
-      <c r="C355" s="6">
+      <c r="C355" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D355" s="2" t="s">
@@ -16010,7 +16013,7 @@
       <c r="B356" s="3">
         <v>0</v>
       </c>
-      <c r="C356" s="6">
+      <c r="C356" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D356" s="2" t="s">
@@ -16024,7 +16027,7 @@
       <c r="B357" s="3">
         <v>1</v>
       </c>
-      <c r="C357" s="6">
+      <c r="C357" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D357" s="2" t="s">
@@ -16038,7 +16041,7 @@
       <c r="B358" s="3">
         <v>0</v>
       </c>
-      <c r="C358" s="6">
+      <c r="C358" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D358" s="2" t="s">
@@ -16052,7 +16055,7 @@
       <c r="B359" s="3">
         <v>1</v>
       </c>
-      <c r="C359" s="6">
+      <c r="C359" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D359" s="2" t="s">
@@ -16066,7 +16069,7 @@
       <c r="B360" s="3">
         <v>0</v>
       </c>
-      <c r="C360" s="6">
+      <c r="C360" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D360" s="2" t="s">
@@ -16080,7 +16083,7 @@
       <c r="B361" s="3">
         <v>1</v>
       </c>
-      <c r="C361" s="6">
+      <c r="C361" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D361" s="2" t="s">
@@ -16094,7 +16097,7 @@
       <c r="B362" s="3">
         <v>0</v>
       </c>
-      <c r="C362" s="6">
+      <c r="C362" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D362" s="2" t="s">
@@ -16108,7 +16111,7 @@
       <c r="B363" s="3">
         <v>1</v>
       </c>
-      <c r="C363" s="6">
+      <c r="C363" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D363" s="2" t="s">
@@ -16122,7 +16125,7 @@
       <c r="B364" s="3">
         <v>0</v>
       </c>
-      <c r="C364" s="6">
+      <c r="C364" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D364" s="2" t="s">
@@ -16136,7 +16139,7 @@
       <c r="B365" s="3">
         <v>1</v>
       </c>
-      <c r="C365" s="6">
+      <c r="C365" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D365" s="2" t="s">
@@ -16150,7 +16153,7 @@
       <c r="B366" s="3">
         <v>0</v>
       </c>
-      <c r="C366" s="6">
+      <c r="C366" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D366" s="2" t="s">
@@ -16164,7 +16167,7 @@
       <c r="B367" s="3">
         <v>1</v>
       </c>
-      <c r="C367" s="6">
+      <c r="C367" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D367" s="2" t="s">
@@ -16178,7 +16181,7 @@
       <c r="B368" s="3">
         <v>0</v>
       </c>
-      <c r="C368" s="6">
+      <c r="C368" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D368" s="2" t="s">
@@ -16192,7 +16195,7 @@
       <c r="B369" s="3">
         <v>1</v>
       </c>
-      <c r="C369" s="6">
+      <c r="C369" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D369" s="2" t="s">
@@ -16206,7 +16209,7 @@
       <c r="B370" s="3">
         <v>0</v>
       </c>
-      <c r="C370" s="6">
+      <c r="C370" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D370" s="2" t="s">
@@ -16220,7 +16223,7 @@
       <c r="B371" s="3">
         <v>1</v>
       </c>
-      <c r="C371" s="6">
+      <c r="C371" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D371" s="2" t="s">
@@ -16234,7 +16237,7 @@
       <c r="B372" s="3">
         <v>0</v>
       </c>
-      <c r="C372" s="6">
+      <c r="C372" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D372" s="2" t="s">
@@ -16248,7 +16251,7 @@
       <c r="B373" s="3">
         <v>1</v>
       </c>
-      <c r="C373" s="6">
+      <c r="C373" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D373" s="2" t="s">
@@ -16262,7 +16265,7 @@
       <c r="B374" s="3">
         <v>0</v>
       </c>
-      <c r="C374" s="6">
+      <c r="C374" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D374" s="2" t="s">
@@ -16276,7 +16279,7 @@
       <c r="B375" s="3">
         <v>1</v>
       </c>
-      <c r="C375" s="6">
+      <c r="C375" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D375" s="2" t="s">
@@ -16290,7 +16293,7 @@
       <c r="B376" s="3">
         <v>0</v>
       </c>
-      <c r="C376" s="6">
+      <c r="C376" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D376" s="2" t="s">
@@ -16304,7 +16307,7 @@
       <c r="B377" s="3">
         <v>1</v>
       </c>
-      <c r="C377" s="6">
+      <c r="C377" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D377" s="2" t="s">
@@ -16318,7 +16321,7 @@
       <c r="B378" s="3">
         <v>0</v>
       </c>
-      <c r="C378" s="6">
+      <c r="C378" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D378" s="2" t="s">
@@ -16332,7 +16335,7 @@
       <c r="B379" s="3">
         <v>1</v>
       </c>
-      <c r="C379" s="6">
+      <c r="C379" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D379" s="2" t="s">
@@ -16346,7 +16349,7 @@
       <c r="B380" s="3">
         <v>0</v>
       </c>
-      <c r="C380" s="6">
+      <c r="C380" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D380" s="2" t="s">
@@ -16360,7 +16363,7 @@
       <c r="B381" s="3">
         <v>1</v>
       </c>
-      <c r="C381" s="6">
+      <c r="C381" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D381" s="2" t="s">
@@ -16374,7 +16377,7 @@
       <c r="B382" s="3">
         <v>0</v>
       </c>
-      <c r="C382" s="6">
+      <c r="C382" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D382" s="2" t="s">
@@ -16388,7 +16391,7 @@
       <c r="B383" s="3">
         <v>1</v>
       </c>
-      <c r="C383" s="6">
+      <c r="C383" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D383" s="2" t="s">
@@ -16402,7 +16405,7 @@
       <c r="B384" s="3">
         <v>0</v>
       </c>
-      <c r="C384" s="6">
+      <c r="C384" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D384" s="2" t="s">
@@ -16416,7 +16419,7 @@
       <c r="B385" s="3">
         <v>1</v>
       </c>
-      <c r="C385" s="6">
+      <c r="C385" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D385" s="2" t="s">
@@ -16430,7 +16433,7 @@
       <c r="B386" s="3">
         <v>0</v>
       </c>
-      <c r="C386" s="6">
+      <c r="C386" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D386" s="2" t="s">
@@ -16444,7 +16447,7 @@
       <c r="B387" s="3">
         <v>1</v>
       </c>
-      <c r="C387" s="6">
+      <c r="C387" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D387" s="2" t="s">
@@ -16458,7 +16461,7 @@
       <c r="B388" s="3">
         <v>0</v>
       </c>
-      <c r="C388" s="6">
+      <c r="C388" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D388" s="2" t="s">
@@ -16472,7 +16475,7 @@
       <c r="B389" s="3">
         <v>1</v>
       </c>
-      <c r="C389" s="6">
+      <c r="C389" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D389" s="2" t="s">
@@ -16486,7 +16489,7 @@
       <c r="B390" s="3">
         <v>0</v>
       </c>
-      <c r="C390" s="6">
+      <c r="C390" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D390" s="2" t="s">
@@ -16500,7 +16503,7 @@
       <c r="B391" s="3">
         <v>1</v>
       </c>
-      <c r="C391" s="6">
+      <c r="C391" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D391" s="2" t="s">
@@ -16514,7 +16517,7 @@
       <c r="B392" s="3">
         <v>0</v>
       </c>
-      <c r="C392" s="6">
+      <c r="C392" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D392" s="2" t="s">
@@ -16528,7 +16531,7 @@
       <c r="B393" s="3">
         <v>1</v>
       </c>
-      <c r="C393" s="6">
+      <c r="C393" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D393" s="2" t="s">
@@ -16542,7 +16545,7 @@
       <c r="B394" s="3">
         <v>0</v>
       </c>
-      <c r="C394" s="6">
+      <c r="C394" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D394" s="2" t="s">
@@ -16556,7 +16559,7 @@
       <c r="B395" s="3">
         <v>1</v>
       </c>
-      <c r="C395" s="6">
+      <c r="C395" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D395" s="2" t="s">
@@ -16570,7 +16573,7 @@
       <c r="B396" s="3">
         <v>0</v>
       </c>
-      <c r="C396" s="6">
+      <c r="C396" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D396" s="2" t="s">
@@ -16584,7 +16587,7 @@
       <c r="B397" s="3">
         <v>1</v>
       </c>
-      <c r="C397" s="6">
+      <c r="C397" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D397" s="2" t="s">
@@ -16598,7 +16601,7 @@
       <c r="B398" s="3">
         <v>0</v>
       </c>
-      <c r="C398" s="6">
+      <c r="C398" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D398" s="2" t="s">
@@ -16612,7 +16615,7 @@
       <c r="B399" s="3">
         <v>1</v>
       </c>
-      <c r="C399" s="6">
+      <c r="C399" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D399" s="2" t="s">
@@ -16626,7 +16629,7 @@
       <c r="B400" s="3">
         <v>0</v>
       </c>
-      <c r="C400" s="6">
+      <c r="C400" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D400" s="2" t="s">
@@ -16640,7 +16643,7 @@
       <c r="B401" s="3">
         <v>1</v>
       </c>
-      <c r="C401" s="6">
+      <c r="C401" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D401" s="2" t="s">
@@ -16654,7 +16657,7 @@
       <c r="B402" s="3">
         <v>0</v>
       </c>
-      <c r="C402" s="6">
+      <c r="C402" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D402" s="2" t="s">
@@ -16668,7 +16671,7 @@
       <c r="B403" s="3">
         <v>1</v>
       </c>
-      <c r="C403" s="6">
+      <c r="C403" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D403" s="2" t="s">
@@ -16682,7 +16685,7 @@
       <c r="B404" s="3">
         <v>0</v>
       </c>
-      <c r="C404" s="6">
+      <c r="C404" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D404" s="2" t="s">
@@ -16696,7 +16699,7 @@
       <c r="B405" s="3">
         <v>1</v>
       </c>
-      <c r="C405" s="6">
+      <c r="C405" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D405" s="2" t="s">
@@ -16710,7 +16713,7 @@
       <c r="B406" s="3">
         <v>0</v>
       </c>
-      <c r="C406" s="6">
+      <c r="C406" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D406" s="2" t="s">
@@ -16724,7 +16727,7 @@
       <c r="B407" s="3">
         <v>1</v>
       </c>
-      <c r="C407" s="6">
+      <c r="C407" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D407" s="2" t="s">
@@ -16738,7 +16741,7 @@
       <c r="B408" s="3">
         <v>0</v>
       </c>
-      <c r="C408" s="6">
+      <c r="C408" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D408" s="2" t="s">
@@ -16752,7 +16755,7 @@
       <c r="B409" s="3">
         <v>1</v>
       </c>
-      <c r="C409" s="6">
+      <c r="C409" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D409" s="2" t="s">
@@ -16766,7 +16769,7 @@
       <c r="B410" s="3">
         <v>0</v>
       </c>
-      <c r="C410" s="6">
+      <c r="C410" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D410" s="2" t="s">
@@ -16780,7 +16783,7 @@
       <c r="B411" s="3">
         <v>1</v>
       </c>
-      <c r="C411" s="6">
+      <c r="C411" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D411" s="2" t="s">
@@ -16794,7 +16797,7 @@
       <c r="B412" s="3">
         <v>0</v>
       </c>
-      <c r="C412" s="6">
+      <c r="C412" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D412" s="2" t="s">
@@ -16808,7 +16811,7 @@
       <c r="B413" s="3">
         <v>1</v>
       </c>
-      <c r="C413" s="6">
+      <c r="C413" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D413" s="2" t="s">
@@ -16822,7 +16825,7 @@
       <c r="B414" s="3">
         <v>0</v>
       </c>
-      <c r="C414" s="6">
+      <c r="C414" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D414" s="2" t="s">
@@ -16836,7 +16839,7 @@
       <c r="B415" s="3">
         <v>1</v>
       </c>
-      <c r="C415" s="6">
+      <c r="C415" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D415" s="2" t="s">
@@ -16850,7 +16853,7 @@
       <c r="B416" s="3">
         <v>0</v>
       </c>
-      <c r="C416" s="6">
+      <c r="C416" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D416" s="2" t="s">
@@ -16864,7 +16867,7 @@
       <c r="B417" s="3">
         <v>1</v>
       </c>
-      <c r="C417" s="6">
+      <c r="C417" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D417" s="2" t="s">
@@ -16878,7 +16881,7 @@
       <c r="B418" s="3">
         <v>0</v>
       </c>
-      <c r="C418" s="6">
+      <c r="C418" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D418" s="2" t="s">
@@ -16892,7 +16895,7 @@
       <c r="B419" s="3">
         <v>1</v>
       </c>
-      <c r="C419" s="6">
+      <c r="C419" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D419" s="2" t="s">
@@ -16906,7 +16909,7 @@
       <c r="B420" s="3">
         <v>0</v>
       </c>
-      <c r="C420" s="6">
+      <c r="C420" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D420" s="2" t="s">
@@ -16920,7 +16923,7 @@
       <c r="B421" s="3">
         <v>1</v>
       </c>
-      <c r="C421" s="6">
+      <c r="C421" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D421" s="2" t="s">
@@ -16934,7 +16937,7 @@
       <c r="B422" s="3">
         <v>0</v>
       </c>
-      <c r="C422" s="6">
+      <c r="C422" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D422" s="2" t="s">
@@ -16948,7 +16951,7 @@
       <c r="B423" s="3">
         <v>1</v>
       </c>
-      <c r="C423" s="6">
+      <c r="C423" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D423" s="2" t="s">
@@ -16962,7 +16965,7 @@
       <c r="B424" s="3">
         <v>0</v>
       </c>
-      <c r="C424" s="6">
+      <c r="C424" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D424" s="2" t="s">
@@ -16976,7 +16979,7 @@
       <c r="B425" s="3">
         <v>1</v>
       </c>
-      <c r="C425" s="6">
+      <c r="C425" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D425" s="2" t="s">
@@ -16990,7 +16993,7 @@
       <c r="B426" s="3">
         <v>0</v>
       </c>
-      <c r="C426" s="6">
+      <c r="C426" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D426" s="2" t="s">
@@ -17004,7 +17007,7 @@
       <c r="B427" s="3">
         <v>1</v>
       </c>
-      <c r="C427" s="6">
+      <c r="C427" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D427" s="2" t="s">
@@ -17018,7 +17021,7 @@
       <c r="B428" s="3">
         <v>0</v>
       </c>
-      <c r="C428" s="6">
+      <c r="C428" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D428" s="2" t="s">
@@ -17032,7 +17035,7 @@
       <c r="B429" s="3">
         <v>1</v>
       </c>
-      <c r="C429" s="6">
+      <c r="C429" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D429" s="2" t="s">
@@ -17046,7 +17049,7 @@
       <c r="B430" s="3">
         <v>0</v>
       </c>
-      <c r="C430" s="6">
+      <c r="C430" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D430" s="2" t="s">
@@ -17060,7 +17063,7 @@
       <c r="B431" s="3">
         <v>1</v>
       </c>
-      <c r="C431" s="6">
+      <c r="C431" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D431" s="2" t="s">
@@ -17074,7 +17077,7 @@
       <c r="B432" s="3">
         <v>0</v>
       </c>
-      <c r="C432" s="6">
+      <c r="C432" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D432" s="2" t="s">
@@ -17088,7 +17091,7 @@
       <c r="B433" s="3">
         <v>1</v>
       </c>
-      <c r="C433" s="6">
+      <c r="C433" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D433" s="2" t="s">
@@ -17102,7 +17105,7 @@
       <c r="B434" s="3">
         <v>0</v>
       </c>
-      <c r="C434" s="6">
+      <c r="C434" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D434" s="2" t="s">
@@ -17116,7 +17119,7 @@
       <c r="B435" s="3">
         <v>1</v>
       </c>
-      <c r="C435" s="6">
+      <c r="C435" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D435" s="2" t="s">
@@ -17130,7 +17133,7 @@
       <c r="B436" s="3">
         <v>0</v>
       </c>
-      <c r="C436" s="6">
+      <c r="C436" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D436" s="2" t="s">
@@ -17144,7 +17147,7 @@
       <c r="B437" s="3">
         <v>1</v>
       </c>
-      <c r="C437" s="6">
+      <c r="C437" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D437" s="2" t="s">
@@ -17158,7 +17161,7 @@
       <c r="B438" s="3">
         <v>0</v>
       </c>
-      <c r="C438" s="6">
+      <c r="C438" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D438" s="2" t="s">
@@ -17172,7 +17175,7 @@
       <c r="B439" s="3">
         <v>1</v>
       </c>
-      <c r="C439" s="6">
+      <c r="C439" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D439" s="2" t="s">
@@ -17186,7 +17189,7 @@
       <c r="B440" s="3">
         <v>0</v>
       </c>
-      <c r="C440" s="6">
+      <c r="C440" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D440" s="2" t="s">
@@ -17200,7 +17203,7 @@
       <c r="B441" s="3">
         <v>1</v>
       </c>
-      <c r="C441" s="6">
+      <c r="C441" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D441" s="2" t="s">
@@ -17214,7 +17217,7 @@
       <c r="B442" s="3">
         <v>0</v>
       </c>
-      <c r="C442" s="6">
+      <c r="C442" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D442" s="2" t="s">
@@ -17228,7 +17231,7 @@
       <c r="B443" s="3">
         <v>1</v>
       </c>
-      <c r="C443" s="6">
+      <c r="C443" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D443" s="2" t="s">
@@ -17242,7 +17245,7 @@
       <c r="B444" s="3">
         <v>0</v>
       </c>
-      <c r="C444" s="6">
+      <c r="C444" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D444" s="2" t="s">
@@ -17256,7 +17259,7 @@
       <c r="B445" s="3">
         <v>1</v>
       </c>
-      <c r="C445" s="6">
+      <c r="C445" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D445" s="2" t="s">
@@ -17270,7 +17273,7 @@
       <c r="B446" s="3">
         <v>0</v>
       </c>
-      <c r="C446" s="6">
+      <c r="C446" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D446" s="2" t="s">
@@ -17284,7 +17287,7 @@
       <c r="B447" s="3">
         <v>1</v>
       </c>
-      <c r="C447" s="6">
+      <c r="C447" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D447" s="2" t="s">
@@ -17298,7 +17301,7 @@
       <c r="B448" s="3">
         <v>0</v>
       </c>
-      <c r="C448" s="6">
+      <c r="C448" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D448" s="2" t="s">
@@ -17312,7 +17315,7 @@
       <c r="B449" s="3">
         <v>1</v>
       </c>
-      <c r="C449" s="6">
+      <c r="C449" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D449" s="2" t="s">
@@ -17326,7 +17329,7 @@
       <c r="B450" s="3">
         <v>0</v>
       </c>
-      <c r="C450" s="6">
+      <c r="C450" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D450" s="2" t="s">
@@ -17340,7 +17343,7 @@
       <c r="B451" s="3">
         <v>1</v>
       </c>
-      <c r="C451" s="6">
+      <c r="C451" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D451" s="2" t="s">
@@ -17354,7 +17357,7 @@
       <c r="B452" s="3">
         <v>0</v>
       </c>
-      <c r="C452" s="6">
+      <c r="C452" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D452" s="2" t="s">
@@ -17368,7 +17371,7 @@
       <c r="B453" s="3">
         <v>1</v>
       </c>
-      <c r="C453" s="6">
+      <c r="C453" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D453" s="2" t="s">
@@ -17382,7 +17385,7 @@
       <c r="B454" s="3">
         <v>0</v>
       </c>
-      <c r="C454" s="6">
+      <c r="C454" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D454" s="2" t="s">
@@ -17396,7 +17399,7 @@
       <c r="B455" s="3">
         <v>1</v>
       </c>
-      <c r="C455" s="6">
+      <c r="C455" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D455" s="2" t="s">
@@ -17410,7 +17413,7 @@
       <c r="B456" s="3">
         <v>0</v>
       </c>
-      <c r="C456" s="6">
+      <c r="C456" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D456" s="2" t="s">
@@ -17424,7 +17427,7 @@
       <c r="B457" s="3">
         <v>1</v>
       </c>
-      <c r="C457" s="6">
+      <c r="C457" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D457" s="2" t="s">
@@ -17438,7 +17441,7 @@
       <c r="B458" s="3">
         <v>0</v>
       </c>
-      <c r="C458" s="6">
+      <c r="C458" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D458" s="2" t="s">
@@ -17452,7 +17455,7 @@
       <c r="B459" s="3">
         <v>1</v>
       </c>
-      <c r="C459" s="6">
+      <c r="C459" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D459" s="2" t="s">
@@ -17466,7 +17469,7 @@
       <c r="B460" s="3">
         <v>0</v>
       </c>
-      <c r="C460" s="6">
+      <c r="C460" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D460" s="2" t="s">
@@ -17480,7 +17483,7 @@
       <c r="B461" s="3">
         <v>1</v>
       </c>
-      <c r="C461" s="6">
+      <c r="C461" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D461" s="2" t="s">
@@ -17494,7 +17497,7 @@
       <c r="B462" s="3">
         <v>0</v>
       </c>
-      <c r="C462" s="6">
+      <c r="C462" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D462" s="2" t="s">
@@ -17508,7 +17511,7 @@
       <c r="B463" s="3">
         <v>1</v>
       </c>
-      <c r="C463" s="6">
+      <c r="C463" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D463" s="2" t="s">
@@ -17522,7 +17525,7 @@
       <c r="B464" s="3">
         <v>0</v>
       </c>
-      <c r="C464" s="6">
+      <c r="C464" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D464" s="2" t="s">
@@ -17536,7 +17539,7 @@
       <c r="B465" s="3">
         <v>1</v>
       </c>
-      <c r="C465" s="6">
+      <c r="C465" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D465" s="2" t="s">
@@ -17550,7 +17553,7 @@
       <c r="B466" s="3">
         <v>0</v>
       </c>
-      <c r="C466" s="6">
+      <c r="C466" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D466" s="2" t="s">
@@ -17564,7 +17567,7 @@
       <c r="B467" s="3">
         <v>1</v>
       </c>
-      <c r="C467" s="6">
+      <c r="C467" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D467" s="2" t="s">
@@ -17578,7 +17581,7 @@
       <c r="B468" s="3">
         <v>0</v>
       </c>
-      <c r="C468" s="6">
+      <c r="C468" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D468" s="2" t="s">
@@ -17592,7 +17595,7 @@
       <c r="B469" s="3">
         <v>1</v>
       </c>
-      <c r="C469" s="6">
+      <c r="C469" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D469" s="2" t="s">
@@ -17606,7 +17609,7 @@
       <c r="B470" s="3">
         <v>0</v>
       </c>
-      <c r="C470" s="6">
+      <c r="C470" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D470" s="2" t="s">
@@ -17620,7 +17623,7 @@
       <c r="B471" s="3">
         <v>1</v>
       </c>
-      <c r="C471" s="6">
+      <c r="C471" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D471" s="2" t="s">
@@ -17634,7 +17637,7 @@
       <c r="B472" s="3">
         <v>0</v>
       </c>
-      <c r="C472" s="6">
+      <c r="C472" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D472" s="2" t="s">
@@ -17648,7 +17651,7 @@
       <c r="B473" s="3">
         <v>1</v>
       </c>
-      <c r="C473" s="6">
+      <c r="C473" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D473" s="2" t="s">
@@ -17662,7 +17665,7 @@
       <c r="B474" s="3">
         <v>0</v>
       </c>
-      <c r="C474" s="6">
+      <c r="C474" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D474" s="2" t="s">
@@ -17676,7 +17679,7 @@
       <c r="B475" s="3">
         <v>1</v>
       </c>
-      <c r="C475" s="6">
+      <c r="C475" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D475" s="2" t="s">
@@ -17690,7 +17693,7 @@
       <c r="B476" s="3">
         <v>0</v>
       </c>
-      <c r="C476" s="6">
+      <c r="C476" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D476" s="2" t="s">
@@ -17704,7 +17707,7 @@
       <c r="B477" s="3">
         <v>1</v>
       </c>
-      <c r="C477" s="6">
+      <c r="C477" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D477" s="2" t="s">
@@ -17718,7 +17721,7 @@
       <c r="B478" s="3">
         <v>0</v>
       </c>
-      <c r="C478" s="6">
+      <c r="C478" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D478" s="2" t="s">
@@ -17732,7 +17735,7 @@
       <c r="B479" s="3">
         <v>1</v>
       </c>
-      <c r="C479" s="6">
+      <c r="C479" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D479" s="2" t="s">
@@ -17746,7 +17749,7 @@
       <c r="B480" s="3">
         <v>0</v>
       </c>
-      <c r="C480" s="6">
+      <c r="C480" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D480" s="2" t="s">
@@ -17760,7 +17763,7 @@
       <c r="B481" s="3">
         <v>1</v>
       </c>
-      <c r="C481" s="6">
+      <c r="C481" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D481" s="2" t="s">
@@ -17774,7 +17777,7 @@
       <c r="B482" s="3">
         <v>0</v>
       </c>
-      <c r="C482" s="6">
+      <c r="C482" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D482" s="2" t="s">
@@ -17788,7 +17791,7 @@
       <c r="B483" s="3">
         <v>1</v>
       </c>
-      <c r="C483" s="6">
+      <c r="C483" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D483" s="2" t="s">
@@ -17802,7 +17805,7 @@
       <c r="B484" s="3">
         <v>0</v>
       </c>
-      <c r="C484" s="6">
+      <c r="C484" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D484" s="2" t="s">
@@ -17816,7 +17819,7 @@
       <c r="B485" s="3">
         <v>1</v>
       </c>
-      <c r="C485" s="6">
+      <c r="C485" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D485" s="2" t="s">
@@ -17830,7 +17833,7 @@
       <c r="B486" s="3">
         <v>0</v>
       </c>
-      <c r="C486" s="6">
+      <c r="C486" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D486" s="2" t="s">
@@ -17844,7 +17847,7 @@
       <c r="B487" s="3">
         <v>1</v>
       </c>
-      <c r="C487" s="6">
+      <c r="C487" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D487" s="2" t="s">
@@ -17858,7 +17861,7 @@
       <c r="B488" s="3">
         <v>0</v>
       </c>
-      <c r="C488" s="6">
+      <c r="C488" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D488" s="2" t="s">
@@ -17872,7 +17875,7 @@
       <c r="B489" s="3">
         <v>1</v>
       </c>
-      <c r="C489" s="6">
+      <c r="C489" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D489" s="2" t="s">
@@ -17886,7 +17889,7 @@
       <c r="B490" s="3">
         <v>0</v>
       </c>
-      <c r="C490" s="6">
+      <c r="C490" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D490" s="2" t="s">
@@ -17900,7 +17903,7 @@
       <c r="B491" s="3">
         <v>1</v>
       </c>
-      <c r="C491" s="6">
+      <c r="C491" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D491" s="2" t="s">
@@ -17914,7 +17917,7 @@
       <c r="B492" s="3">
         <v>0</v>
       </c>
-      <c r="C492" s="6">
+      <c r="C492" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D492" s="2" t="s">
@@ -17928,7 +17931,7 @@
       <c r="B493" s="3">
         <v>1</v>
       </c>
-      <c r="C493" s="6">
+      <c r="C493" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D493" s="2" t="s">
@@ -17942,7 +17945,7 @@
       <c r="B494" s="3">
         <v>0</v>
       </c>
-      <c r="C494" s="6">
+      <c r="C494" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D494" s="2" t="s">
@@ -17956,7 +17959,7 @@
       <c r="B495" s="3">
         <v>1</v>
       </c>
-      <c r="C495" s="6">
+      <c r="C495" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D495" s="2" t="s">
@@ -17970,7 +17973,7 @@
       <c r="B496" s="3">
         <v>0</v>
       </c>
-      <c r="C496" s="6">
+      <c r="C496" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D496" s="2" t="s">
@@ -17984,7 +17987,7 @@
       <c r="B497" s="3">
         <v>1</v>
       </c>
-      <c r="C497" s="6">
+      <c r="C497" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D497" s="2" t="s">
@@ -17998,7 +18001,7 @@
       <c r="B498" s="3">
         <v>0</v>
       </c>
-      <c r="C498" s="6">
+      <c r="C498" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D498" s="2" t="s">
@@ -18012,7 +18015,7 @@
       <c r="B499" s="3">
         <v>1</v>
       </c>
-      <c r="C499" s="6">
+      <c r="C499" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D499" s="2" t="s">
@@ -18026,7 +18029,7 @@
       <c r="B500" s="3">
         <v>0</v>
       </c>
-      <c r="C500" s="6">
+      <c r="C500" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D500" s="2" t="s">
@@ -18040,7 +18043,7 @@
       <c r="B501" s="3">
         <v>1</v>
       </c>
-      <c r="C501" s="6">
+      <c r="C501" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D501" s="2" t="s">
@@ -18054,7 +18057,7 @@
       <c r="B502" s="3">
         <v>0</v>
       </c>
-      <c r="C502" s="6">
+      <c r="C502" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D502" s="2" t="s">
@@ -18068,7 +18071,7 @@
       <c r="B503" s="3">
         <v>1</v>
       </c>
-      <c r="C503" s="6">
+      <c r="C503" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D503" s="2" t="s">
@@ -18082,7 +18085,7 @@
       <c r="B504" s="3">
         <v>0</v>
       </c>
-      <c r="C504" s="6">
+      <c r="C504" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D504" s="2" t="s">
@@ -18096,7 +18099,7 @@
       <c r="B505" s="3">
         <v>1</v>
       </c>
-      <c r="C505" s="6">
+      <c r="C505" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D505" s="2" t="s">
@@ -18110,7 +18113,7 @@
       <c r="B506" s="3">
         <v>0</v>
       </c>
-      <c r="C506" s="6">
+      <c r="C506" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D506" s="2" t="s">
@@ -18124,7 +18127,7 @@
       <c r="B507" s="3">
         <v>1</v>
       </c>
-      <c r="C507" s="6">
+      <c r="C507" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D507" s="2" t="s">
@@ -18138,7 +18141,7 @@
       <c r="B508" s="3">
         <v>0</v>
       </c>
-      <c r="C508" s="6">
+      <c r="C508" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D508" s="2" t="s">
@@ -18152,7 +18155,7 @@
       <c r="B509" s="3">
         <v>1</v>
       </c>
-      <c r="C509" s="6">
+      <c r="C509" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D509" s="2" t="s">
@@ -18166,7 +18169,7 @@
       <c r="B510" s="3">
         <v>0</v>
       </c>
-      <c r="C510" s="6">
+      <c r="C510" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D510" s="2" t="s">
@@ -18180,7 +18183,7 @@
       <c r="B511" s="3">
         <v>1</v>
       </c>
-      <c r="C511" s="6">
+      <c r="C511" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D511" s="2" t="s">
@@ -18194,7 +18197,7 @@
       <c r="B512" s="3">
         <v>0</v>
       </c>
-      <c r="C512" s="6">
+      <c r="C512" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D512" s="2" t="s">
@@ -18208,7 +18211,7 @@
       <c r="B513" s="3">
         <v>1</v>
       </c>
-      <c r="C513" s="6">
+      <c r="C513" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D513" s="2" t="s">
@@ -18222,7 +18225,7 @@
       <c r="B514" s="3">
         <v>0</v>
       </c>
-      <c r="C514" s="6">
+      <c r="C514" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D514" s="2" t="s">
@@ -18236,7 +18239,7 @@
       <c r="B515" s="3">
         <v>1</v>
       </c>
-      <c r="C515" s="6">
+      <c r="C515" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D515" s="2" t="s">
@@ -18250,7 +18253,7 @@
       <c r="B516" s="3">
         <v>0</v>
       </c>
-      <c r="C516" s="6">
+      <c r="C516" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D516" s="2" t="s">
@@ -18264,7 +18267,7 @@
       <c r="B517" s="3">
         <v>1</v>
       </c>
-      <c r="C517" s="6">
+      <c r="C517" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D517" s="2" t="s">
@@ -18278,7 +18281,7 @@
       <c r="B518" s="3">
         <v>0</v>
       </c>
-      <c r="C518" s="6">
+      <c r="C518" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D518" s="2" t="s">
@@ -18292,7 +18295,7 @@
       <c r="B519" s="3">
         <v>1</v>
       </c>
-      <c r="C519" s="6">
+      <c r="C519" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D519" s="2" t="s">
@@ -18306,7 +18309,7 @@
       <c r="B520" s="3">
         <v>0</v>
       </c>
-      <c r="C520" s="6">
+      <c r="C520" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D520" s="2" t="s">
@@ -18320,7 +18323,7 @@
       <c r="B521" s="3">
         <v>1</v>
       </c>
-      <c r="C521" s="6">
+      <c r="C521" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D521" s="2" t="s">
@@ -18334,7 +18337,7 @@
       <c r="B522" s="3">
         <v>0</v>
       </c>
-      <c r="C522" s="6">
+      <c r="C522" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D522" s="2" t="s">
@@ -18348,7 +18351,7 @@
       <c r="B523" s="3">
         <v>1</v>
       </c>
-      <c r="C523" s="6">
+      <c r="C523" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D523" s="2" t="s">
@@ -18362,7 +18365,7 @@
       <c r="B524" s="3">
         <v>0</v>
       </c>
-      <c r="C524" s="6">
+      <c r="C524" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D524" s="2" t="s">
@@ -18376,7 +18379,7 @@
       <c r="B525" s="3">
         <v>1</v>
       </c>
-      <c r="C525" s="6">
+      <c r="C525" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D525" s="2" t="s">
@@ -18390,7 +18393,7 @@
       <c r="B526" s="3">
         <v>0</v>
       </c>
-      <c r="C526" s="6">
+      <c r="C526" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D526" s="2" t="s">
@@ -18404,7 +18407,7 @@
       <c r="B527" s="3">
         <v>1</v>
       </c>
-      <c r="C527" s="6">
+      <c r="C527" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D527" s="2" t="s">
@@ -18418,7 +18421,7 @@
       <c r="B528" s="3">
         <v>0</v>
       </c>
-      <c r="C528" s="6">
+      <c r="C528" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D528" s="2" t="s">
@@ -18432,7 +18435,7 @@
       <c r="B529" s="3">
         <v>1</v>
       </c>
-      <c r="C529" s="6">
+      <c r="C529" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D529" s="2" t="s">
@@ -18446,7 +18449,7 @@
       <c r="B530" s="3">
         <v>0</v>
       </c>
-      <c r="C530" s="6">
+      <c r="C530" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D530" s="2" t="s">
@@ -18460,7 +18463,7 @@
       <c r="B531" s="3">
         <v>1</v>
       </c>
-      <c r="C531" s="6">
+      <c r="C531" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D531" s="2" t="s">
@@ -18474,7 +18477,7 @@
       <c r="B532" s="3">
         <v>0</v>
       </c>
-      <c r="C532" s="6">
+      <c r="C532" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D532" s="2" t="s">
@@ -18488,7 +18491,7 @@
       <c r="B533" s="3">
         <v>1</v>
       </c>
-      <c r="C533" s="6">
+      <c r="C533" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D533" s="2" t="s">
@@ -18502,7 +18505,7 @@
       <c r="B534" s="3">
         <v>0</v>
       </c>
-      <c r="C534" s="6">
+      <c r="C534" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D534" s="2" t="s">
@@ -18516,7 +18519,7 @@
       <c r="B535" s="3">
         <v>1</v>
       </c>
-      <c r="C535" s="6">
+      <c r="C535" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D535" s="2" t="s">
@@ -18530,7 +18533,7 @@
       <c r="B536" s="3">
         <v>0</v>
       </c>
-      <c r="C536" s="6">
+      <c r="C536" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D536" s="2" t="s">
@@ -18544,7 +18547,7 @@
       <c r="B537" s="3">
         <v>1</v>
       </c>
-      <c r="C537" s="6">
+      <c r="C537" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D537" s="2" t="s">
@@ -18558,7 +18561,7 @@
       <c r="B538" s="3">
         <v>0</v>
       </c>
-      <c r="C538" s="6">
+      <c r="C538" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D538" s="2" t="s">
@@ -18572,7 +18575,7 @@
       <c r="B539" s="3">
         <v>1</v>
       </c>
-      <c r="C539" s="6">
+      <c r="C539" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D539" s="2" t="s">
@@ -18586,7 +18589,7 @@
       <c r="B540" s="3">
         <v>0</v>
       </c>
-      <c r="C540" s="6">
+      <c r="C540" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D540" s="2" t="s">
@@ -18600,7 +18603,7 @@
       <c r="B541" s="3">
         <v>1</v>
       </c>
-      <c r="C541" s="6">
+      <c r="C541" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D541" s="2" t="s">
@@ -18614,7 +18617,7 @@
       <c r="B542" s="3">
         <v>0</v>
       </c>
-      <c r="C542" s="6">
+      <c r="C542" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D542" s="2" t="s">
@@ -18628,7 +18631,7 @@
       <c r="B543" s="3">
         <v>1</v>
       </c>
-      <c r="C543" s="6">
+      <c r="C543" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D543" s="2" t="s">
@@ -18642,7 +18645,7 @@
       <c r="B544" s="3">
         <v>0</v>
       </c>
-      <c r="C544" s="6">
+      <c r="C544" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D544" s="2" t="s">
@@ -18656,7 +18659,7 @@
       <c r="B545" s="3">
         <v>1</v>
       </c>
-      <c r="C545" s="6">
+      <c r="C545" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D545" s="2" t="s">
@@ -18670,7 +18673,7 @@
       <c r="B546" s="3">
         <v>0</v>
       </c>
-      <c r="C546" s="6">
+      <c r="C546" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D546" s="2" t="s">
@@ -18684,7 +18687,7 @@
       <c r="B547" s="3">
         <v>1</v>
       </c>
-      <c r="C547" s="6">
+      <c r="C547" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D547" s="2" t="s">
@@ -18698,7 +18701,7 @@
       <c r="B548" s="3">
         <v>0</v>
       </c>
-      <c r="C548" s="6">
+      <c r="C548" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D548" s="2" t="s">
@@ -18712,7 +18715,7 @@
       <c r="B549" s="3">
         <v>1</v>
       </c>
-      <c r="C549" s="6">
+      <c r="C549" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D549" s="2" t="s">
@@ -18726,7 +18729,7 @@
       <c r="B550" s="3">
         <v>0</v>
       </c>
-      <c r="C550" s="6">
+      <c r="C550" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D550" s="2" t="s">
@@ -18740,7 +18743,7 @@
       <c r="B551" s="3">
         <v>1</v>
       </c>
-      <c r="C551" s="6">
+      <c r="C551" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D551" s="2" t="s">
@@ -18754,7 +18757,7 @@
       <c r="B552" s="3">
         <v>0</v>
       </c>
-      <c r="C552" s="6">
+      <c r="C552" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D552" s="2" t="s">
@@ -18768,7 +18771,7 @@
       <c r="B553" s="3">
         <v>1</v>
       </c>
-      <c r="C553" s="6">
+      <c r="C553" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D553" s="2" t="s">
@@ -18782,7 +18785,7 @@
       <c r="B554" s="3">
         <v>0</v>
       </c>
-      <c r="C554" s="6">
+      <c r="C554" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D554" s="2" t="s">
@@ -18796,7 +18799,7 @@
       <c r="B555" s="3">
         <v>1</v>
       </c>
-      <c r="C555" s="6">
+      <c r="C555" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D555" s="2" t="s">
@@ -18810,7 +18813,7 @@
       <c r="B556" s="3">
         <v>0</v>
       </c>
-      <c r="C556" s="6">
+      <c r="C556" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D556" s="2" t="s">
@@ -18824,7 +18827,7 @@
       <c r="B557" s="3">
         <v>1</v>
       </c>
-      <c r="C557" s="6">
+      <c r="C557" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D557" s="2" t="s">
@@ -18838,7 +18841,7 @@
       <c r="B558" s="3">
         <v>0</v>
       </c>
-      <c r="C558" s="6">
+      <c r="C558" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D558" s="2" t="s">
@@ -18852,7 +18855,7 @@
       <c r="B559" s="3">
         <v>1</v>
       </c>
-      <c r="C559" s="6">
+      <c r="C559" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D559" s="2" t="s">

--- a/R/data/dictionaries/outcome/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_yearly_repeated.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A9457-5739-F941-92B2-84B7E4226A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2800" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2796" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="302">
   <si>
     <t>name</t>
   </si>
@@ -273,13 +267,667 @@
   </si>
   <si>
     <t xml:space="preserve">location of itchy rash typical for eczema </t>
+  </si>
+  <si>
+    <t>int_raw_</t>
+  </si>
+  <si>
+    <t>internalizing problems, total raw score</t>
+  </si>
+  <si>
+    <t>int_age_</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when internalizing problems were recorded</t>
+  </si>
+  <si>
+    <t>int_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the internalizing problems</t>
+  </si>
+  <si>
+    <t>int_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring internalizing problems was administered/answered by</t>
+  </si>
+  <si>
+    <t>int_pro_</t>
+  </si>
+  <si>
+    <t>total internalizing problems score after prorating internalizing problems total raw score</t>
+  </si>
+  <si>
+    <t>int_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of internalizing problems</t>
+  </si>
+  <si>
+    <t>int_pc_</t>
+  </si>
+  <si>
+    <t>internalizing problems, percentiles</t>
+  </si>
+  <si>
+    <t>ext_raw_</t>
+  </si>
+  <si>
+    <t>externalizing problems, total raw score</t>
+  </si>
+  <si>
+    <t>ext_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when externalizing problems were recorded</t>
+  </si>
+  <si>
+    <t>ext_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the externalizing problems</t>
+  </si>
+  <si>
+    <t>ext_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring externalizing problems was administered/answered by</t>
+  </si>
+  <si>
+    <t>ext_pro_</t>
+  </si>
+  <si>
+    <t>total externalizing problems score after prorating externalizing problems total raw score</t>
+  </si>
+  <si>
+    <t>ext_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of externalizing problems</t>
+  </si>
+  <si>
+    <t>ext_pc_</t>
+  </si>
+  <si>
+    <t>externalizing problems, percentiles</t>
+  </si>
+  <si>
+    <t>adhd_raw_</t>
+  </si>
+  <si>
+    <t>ADHD, total raw score</t>
+  </si>
+  <si>
+    <t>adhd_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when ADHD were recorded</t>
+  </si>
+  <si>
+    <t>adhd_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the ADHD</t>
+  </si>
+  <si>
+    <t>adhd_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring ADHD was administered/answered by</t>
+  </si>
+  <si>
+    <t>adhd_pro_</t>
+  </si>
+  <si>
+    <t>total ADHD score after prorating ADHD total raw score</t>
+  </si>
+  <si>
+    <t>adhd_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of ADHD</t>
+  </si>
+  <si>
+    <t>adhd_pc_</t>
+  </si>
+  <si>
+    <t>ADHD, percentiles</t>
+  </si>
+  <si>
+    <t>adhdR_</t>
+  </si>
+  <si>
+    <t>ADHD diagnosis</t>
+  </si>
+  <si>
+    <t>adhdR_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) at onset for ADHD diagnosis</t>
+  </si>
+  <si>
+    <t>adhdR_eval_</t>
+  </si>
+  <si>
+    <t>how was the medical diagnosis reported for ADHD</t>
+  </si>
+  <si>
+    <t>asd_raw_</t>
+  </si>
+  <si>
+    <t>ASD, total raw score</t>
+  </si>
+  <si>
+    <t>asd_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when ASD were recorded</t>
+  </si>
+  <si>
+    <t>asd_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the ASD</t>
+  </si>
+  <si>
+    <t>asd_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring ASD was administered/answered by</t>
+  </si>
+  <si>
+    <t>asd_pro_</t>
+  </si>
+  <si>
+    <t>total ASD score after prorating ASD total raw score</t>
+  </si>
+  <si>
+    <t>asd_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of ASD</t>
+  </si>
+  <si>
+    <t>asd_pc_</t>
+  </si>
+  <si>
+    <t>ASD, percentiles</t>
+  </si>
+  <si>
+    <t>asdR_</t>
+  </si>
+  <si>
+    <t>ASD diagnosis</t>
+  </si>
+  <si>
+    <t>asdR_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) at onset for ASD diagnosis</t>
+  </si>
+  <si>
+    <t>asdR_eval_</t>
+  </si>
+  <si>
+    <t>how was the medical diagnosis reported for ASD</t>
+  </si>
+  <si>
+    <t>gm_raw_</t>
+  </si>
+  <si>
+    <t>gross motor, total raw score</t>
+  </si>
+  <si>
+    <t>gm_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when gross motor were recorded</t>
+  </si>
+  <si>
+    <t>gm_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the gross motor</t>
+  </si>
+  <si>
+    <t>gm_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring gross motor was administered/answered by</t>
+  </si>
+  <si>
+    <t>gm_pro_</t>
+  </si>
+  <si>
+    <t>total gross motor score after prorating gross motor total raw score</t>
+  </si>
+  <si>
+    <t>gm_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of gross motor</t>
+  </si>
+  <si>
+    <t>gm_pc_</t>
+  </si>
+  <si>
+    <t>gross motor, percentiles</t>
+  </si>
+  <si>
+    <t>gm_std_</t>
+  </si>
+  <si>
+    <t>gross motor, standardized score</t>
+  </si>
+  <si>
+    <t>fm_raw_</t>
+  </si>
+  <si>
+    <t>fine motor, total raw score</t>
+  </si>
+  <si>
+    <t>fm_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when fine motor were recorded</t>
+  </si>
+  <si>
+    <t>fm_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the fine motor</t>
+  </si>
+  <si>
+    <t>fm_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring fine motor was administered/answered by</t>
+  </si>
+  <si>
+    <t>fm_pro_</t>
+  </si>
+  <si>
+    <t>total fine motor score after prorating fine motor total raw score</t>
+  </si>
+  <si>
+    <t>fm_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of fine motor</t>
+  </si>
+  <si>
+    <t>fm_pc_</t>
+  </si>
+  <si>
+    <t>fine motor, percentiles</t>
+  </si>
+  <si>
+    <t>fm_std_</t>
+  </si>
+  <si>
+    <t>fine motor, standardized score</t>
+  </si>
+  <si>
+    <t>nvi_raw_</t>
+  </si>
+  <si>
+    <t>non-verbal intelligence, total raw score</t>
+  </si>
+  <si>
+    <t>nvi_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when non-verbal intelligence were recorded</t>
+  </si>
+  <si>
+    <t>nvi_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the non-verbal intelligence</t>
+  </si>
+  <si>
+    <t>nvi_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring non-verbal intelligence was administered/answered by</t>
+  </si>
+  <si>
+    <t>nvi_pro_</t>
+  </si>
+  <si>
+    <t>total non-verbal intelligence score after prorating non-verbal intelligence total raw score</t>
+  </si>
+  <si>
+    <t>nvi_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of non-verbal intelligence</t>
+  </si>
+  <si>
+    <t>nvi_pc_</t>
+  </si>
+  <si>
+    <t>non-verbal intelligence, percentiles</t>
+  </si>
+  <si>
+    <t>nvi_std_</t>
+  </si>
+  <si>
+    <t>non-verbal intelligence, standardized score</t>
+  </si>
+  <si>
+    <t>wm_raw_</t>
+  </si>
+  <si>
+    <t>working memory, total raw score</t>
+  </si>
+  <si>
+    <t>wm_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when working memory were recorded</t>
+  </si>
+  <si>
+    <t>wm_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the working memory</t>
+  </si>
+  <si>
+    <t>wm_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring working memory was administered/answered by</t>
+  </si>
+  <si>
+    <t>wm_pro_</t>
+  </si>
+  <si>
+    <t>total working memory score after prorating working memory total raw score</t>
+  </si>
+  <si>
+    <t>wm_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of working memory</t>
+  </si>
+  <si>
+    <t>wm_pc_</t>
+  </si>
+  <si>
+    <t>working memory, percentiles</t>
+  </si>
+  <si>
+    <t>wm_std_</t>
+  </si>
+  <si>
+    <t>working memory, standardized score</t>
+  </si>
+  <si>
+    <t>lan_raw_</t>
+  </si>
+  <si>
+    <t>language, total raw score</t>
+  </si>
+  <si>
+    <t>lan_age_</t>
+  </si>
+  <si>
+    <t>exact age of the child (in years) when language were recorded</t>
+  </si>
+  <si>
+    <t>lan_instr_</t>
+  </si>
+  <si>
+    <t>Cohort-specific instrument used to measure the language</t>
+  </si>
+  <si>
+    <t>lan_eval_</t>
+  </si>
+  <si>
+    <t>who the test for measuring language was administered/answered by</t>
+  </si>
+  <si>
+    <t>lan_pro_</t>
+  </si>
+  <si>
+    <t>total language score after prorating language total raw score</t>
+  </si>
+  <si>
+    <t>lan_avg_</t>
+  </si>
+  <si>
+    <t>average of available items comprising the total raw score of language</t>
+  </si>
+  <si>
+    <t>lan_pc_</t>
+  </si>
+  <si>
+    <t>language, percentiles</t>
+  </si>
+  <si>
+    <t>lan_std_</t>
+  </si>
+  <si>
+    <t>language, standardized score</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>examiner</t>
+  </si>
+  <si>
+    <t>computerized</t>
+  </si>
+  <si>
+    <t>self-reported</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>CBCL</t>
+  </si>
+  <si>
+    <t>ITSEA</t>
+  </si>
+  <si>
+    <t>SDQ</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>YSR</t>
+  </si>
+  <si>
+    <t>CPRS-R</t>
+  </si>
+  <si>
+    <t>DISC-IV/DSM</t>
+  </si>
+  <si>
+    <t>SWAN</t>
+  </si>
+  <si>
+    <t>medical registries or medical records linkage</t>
+  </si>
+  <si>
+    <t>parentally reported doctor-diagnosed disorder</t>
+  </si>
+  <si>
+    <t>ADBB</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>ESAT</t>
+  </si>
+  <si>
+    <t>M-CHAT</t>
+  </si>
+  <si>
+    <t>NVCC</t>
+  </si>
+  <si>
+    <t>SCQ</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>ADRIYC</t>
+  </si>
+  <si>
+    <t>ASQ</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>BSID</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>DCDQ</t>
+  </si>
+  <si>
+    <t>DDST</t>
+  </si>
+  <si>
+    <t>GMDS</t>
+  </si>
+  <si>
+    <t>HELP</t>
+  </si>
+  <si>
+    <t>M-ABC</t>
+  </si>
+  <si>
+    <t>MSCA</t>
+  </si>
+  <si>
+    <t>STYCAR</t>
+  </si>
+  <si>
+    <t>TowenNE</t>
+  </si>
+  <si>
+    <t>WDSC</t>
+  </si>
+  <si>
+    <t>CKAT</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>CFIT</t>
+  </si>
+  <si>
+    <t>CIIS</t>
+  </si>
+  <si>
+    <t>GDO-R</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>SON-R</t>
+  </si>
+  <si>
+    <t>WAIS</t>
+  </si>
+  <si>
+    <t>WISC</t>
+  </si>
+  <si>
+    <t>WPPSI</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>N-Back</t>
+  </si>
+  <si>
+    <t>BDIST</t>
+  </si>
+  <si>
+    <t>BPVS</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CELF</t>
+  </si>
+  <si>
+    <t>DBLR</t>
+  </si>
+  <si>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>ELOLA</t>
+  </si>
+  <si>
+    <t>EYFSP</t>
+  </si>
+  <si>
+    <t>MCDI</t>
+  </si>
+  <si>
+    <t>MoCa</t>
+  </si>
+  <si>
+    <t>NEPSY-II</t>
+  </si>
+  <si>
+    <t>ONA</t>
+  </si>
+  <si>
+    <t>SLAS</t>
+  </si>
+  <si>
+    <t>SVF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -396,9 +1044,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,7 +1439,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -835,7 +1483,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -856,22 +1504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BG107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="15" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1588,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -954,7 +1602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -968,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -980,7 +1628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -993,7 +1641,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1654,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1019,7 +1667,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1680,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1045,7 +1693,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1706,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1072,7 +1720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1086,7 +1734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1100,7 +1748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1114,7 +1762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -1128,7 +1776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1142,7 +1790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -1156,7 +1804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1170,7 +1818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1182,7 +1830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -1194,7 +1842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1208,7 +1856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1220,7 +1868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1232,7 +1880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
@@ -1244,7 +1892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
@@ -1256,7 +1904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -1268,7 +1916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>71</v>
       </c>
@@ -1282,7 +1930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
@@ -1296,7 +1944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>74</v>
       </c>
@@ -1310,7 +1958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>76</v>
       </c>
@@ -1324,7 +1972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>78</v>
       </c>
@@ -1336,7 +1984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>80</v>
       </c>
@@ -1348,7 +1996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -1358,6 +2006,1042 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1">
+      <c r="A67" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="A74" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="A75" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="A76" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1">
+      <c r="A77" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="A78" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="A79" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="A80" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1">
+      <c r="A81" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="A82" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="A83" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="A84" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="A85" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1">
+      <c r="A86" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1">
+      <c r="A87" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="A88" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1">
+      <c r="A89" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="A90" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="A91" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1">
+      <c r="A92" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1">
+      <c r="A93" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1">
+      <c r="A94" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1">
+      <c r="A95" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1">
+      <c r="A96" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1">
+      <c r="A97" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="A98" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="A99" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="A100" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="A101" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="A102" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="A103" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="A104" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="A105" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="A106" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="A107" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1371,21 +3055,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +3083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +3097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +3111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +3125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +3139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +3153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +3167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1497,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +3195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +3209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +3223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1553,7 +3237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +3265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1595,7 +3279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +3293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1623,7 +3307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1637,7 +3321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1651,7 +3335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -1665,7 +3349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -1679,7 +3363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1693,7 +3377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -1707,7 +3391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -1721,7 +3405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -1735,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1749,7 +3433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -1763,7 +3447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +3461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -1791,7 +3475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>68</v>
       </c>
@@ -1803,6 +3487,2302 @@
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="3">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="3">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="3">
+        <v>13</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3">
+        <v>56</v>
+      </c>
+      <c r="C41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3">
+        <v>61</v>
+      </c>
+      <c r="C42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="3">
+        <v>13</v>
+      </c>
+      <c r="C50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="3">
+        <v>34</v>
+      </c>
+      <c r="C51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3">
+        <v>47</v>
+      </c>
+      <c r="C52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3">
+        <v>56</v>
+      </c>
+      <c r="C53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3">
+        <v>61</v>
+      </c>
+      <c r="C54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6</v>
+      </c>
+      <c r="C60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="3">
+        <v>13</v>
+      </c>
+      <c r="C61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="3">
+        <v>20</v>
+      </c>
+      <c r="C62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="3">
+        <v>25</v>
+      </c>
+      <c r="C63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="3">
+        <v>47</v>
+      </c>
+      <c r="C64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="3">
+        <v>53</v>
+      </c>
+      <c r="C65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5</v>
+      </c>
+      <c r="C74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="3">
+        <v>6</v>
+      </c>
+      <c r="C75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="3">
+        <v>12</v>
+      </c>
+      <c r="C78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="3">
+        <v>28</v>
+      </c>
+      <c r="C79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="3">
+        <v>37</v>
+      </c>
+      <c r="C80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="3">
+        <v>42</v>
+      </c>
+      <c r="C81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="3">
+        <v>46</v>
+      </c>
+      <c r="C82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="3">
+        <v>50</v>
+      </c>
+      <c r="C83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3</v>
+      </c>
+      <c r="C90" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="3">
+        <v>4</v>
+      </c>
+      <c r="C91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5</v>
+      </c>
+      <c r="C92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="3">
+        <v>6</v>
+      </c>
+      <c r="C93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="3">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="3">
+        <v>7</v>
+      </c>
+      <c r="C96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="3">
+        <v>10</v>
+      </c>
+      <c r="C97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="3">
+        <v>15</v>
+      </c>
+      <c r="C98" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="3">
+        <v>23</v>
+      </c>
+      <c r="C99" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="3">
+        <v>24</v>
+      </c>
+      <c r="C100" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="3">
+        <v>31</v>
+      </c>
+      <c r="C101" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33</v>
+      </c>
+      <c r="C102" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="3">
+        <v>35</v>
+      </c>
+      <c r="C103" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="3">
+        <v>39</v>
+      </c>
+      <c r="C104" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="3">
+        <v>51</v>
+      </c>
+      <c r="C105" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="3">
+        <v>55</v>
+      </c>
+      <c r="C106" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="3">
+        <v>58</v>
+      </c>
+      <c r="C107" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3</v>
+      </c>
+      <c r="C110" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1">
+      <c r="A111" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="3">
+        <v>4</v>
+      </c>
+      <c r="C111" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5</v>
+      </c>
+      <c r="C112" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" s="3">
+        <v>6</v>
+      </c>
+      <c r="C113" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="3">
+        <v>4</v>
+      </c>
+      <c r="C115" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="3">
+        <v>7</v>
+      </c>
+      <c r="C116" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" s="3">
+        <v>10</v>
+      </c>
+      <c r="C117" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118" s="3">
+        <v>15</v>
+      </c>
+      <c r="C118" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1">
+      <c r="A119" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="3">
+        <v>19</v>
+      </c>
+      <c r="C119" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="3">
+        <v>23</v>
+      </c>
+      <c r="C120" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1">
+      <c r="A121" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="3">
+        <v>24</v>
+      </c>
+      <c r="C121" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="3">
+        <v>31</v>
+      </c>
+      <c r="C122" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="3">
+        <v>32</v>
+      </c>
+      <c r="C123" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1">
+      <c r="A124" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="3">
+        <v>33</v>
+      </c>
+      <c r="C124" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1">
+      <c r="A125" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="3">
+        <v>35</v>
+      </c>
+      <c r="C125" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1">
+      <c r="A126" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126" s="3">
+        <v>39</v>
+      </c>
+      <c r="C126" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1">
+      <c r="A127" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B127" s="3">
+        <v>44</v>
+      </c>
+      <c r="C127" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1">
+      <c r="A128" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" s="3">
+        <v>51</v>
+      </c>
+      <c r="C128" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="3">
+        <v>54</v>
+      </c>
+      <c r="C129" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="3">
+        <v>58</v>
+      </c>
+      <c r="C130" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
+      <c r="C132" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133" s="3">
+        <v>3</v>
+      </c>
+      <c r="C133" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1">
+      <c r="A134" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="3">
+        <v>4</v>
+      </c>
+      <c r="C134" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1">
+      <c r="A135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5</v>
+      </c>
+      <c r="C135" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1">
+      <c r="A136" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="3">
+        <v>6</v>
+      </c>
+      <c r="C136" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1">
+      <c r="A137" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="3">
+        <v>4</v>
+      </c>
+      <c r="C137" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1">
+      <c r="A138" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="3">
+        <v>5</v>
+      </c>
+      <c r="C138" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1">
+      <c r="A139" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" s="3">
+        <v>10</v>
+      </c>
+      <c r="C139" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1">
+      <c r="A140" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B140" s="3">
+        <v>17</v>
+      </c>
+      <c r="C140" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1">
+      <c r="A141" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="3">
+        <v>18</v>
+      </c>
+      <c r="C141" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1">
+      <c r="A142" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" s="3">
+        <v>30</v>
+      </c>
+      <c r="C142" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1">
+      <c r="A143" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="3">
+        <v>31</v>
+      </c>
+      <c r="C143" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1">
+      <c r="A144" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" s="3">
+        <v>33</v>
+      </c>
+      <c r="C144" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="3">
+        <v>39</v>
+      </c>
+      <c r="C145" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1">
+      <c r="A146" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" s="3">
+        <v>45</v>
+      </c>
+      <c r="C146" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1">
+      <c r="A147" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" s="3">
+        <v>49</v>
+      </c>
+      <c r="C147" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1">
+      <c r="A148" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" s="3">
+        <v>57</v>
+      </c>
+      <c r="C148" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1">
+      <c r="A149" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B149" s="3">
+        <v>59</v>
+      </c>
+      <c r="C149" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1">
+      <c r="A150" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B150" s="3">
+        <v>60</v>
+      </c>
+      <c r="C150" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1">
+      <c r="A151" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+      <c r="C151" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1">
+      <c r="A152" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1">
+      <c r="A153" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153" s="3">
+        <v>3</v>
+      </c>
+      <c r="C153" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1">
+      <c r="A154" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B154" s="3">
+        <v>4</v>
+      </c>
+      <c r="C154" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1">
+      <c r="A155" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155" s="3">
+        <v>5</v>
+      </c>
+      <c r="C155" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1">
+      <c r="A156" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B156" s="3">
+        <v>6</v>
+      </c>
+      <c r="C156" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1">
+      <c r="A157" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" s="3">
+        <v>21</v>
+      </c>
+      <c r="C157" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
+      <c r="A158" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" s="3">
+        <v>40</v>
+      </c>
+      <c r="C158" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
+      <c r="A159" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
+      <c r="C159" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1">
+      <c r="A160" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2</v>
+      </c>
+      <c r="C160" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1">
+      <c r="A161" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B161" s="3">
+        <v>3</v>
+      </c>
+      <c r="C161" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1">
+      <c r="A162" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" s="3">
+        <v>4</v>
+      </c>
+      <c r="C162" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1">
+      <c r="A163" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5</v>
+      </c>
+      <c r="C163" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1">
+      <c r="A164" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="3">
+        <v>6</v>
+      </c>
+      <c r="C164" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1">
+      <c r="A165" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1">
+      <c r="A166" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5</v>
+      </c>
+      <c r="C166" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1">
+      <c r="A167" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B167" s="3">
+        <v>6</v>
+      </c>
+      <c r="C167" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1">
+      <c r="A168" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B168" s="3">
+        <v>7</v>
+      </c>
+      <c r="C168" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1">
+      <c r="A169" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B169" s="3">
+        <v>9</v>
+      </c>
+      <c r="C169" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1">
+      <c r="A170" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B170" s="3">
+        <v>10</v>
+      </c>
+      <c r="C170" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1">
+      <c r="A171" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="3">
+        <v>11</v>
+      </c>
+      <c r="C171" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1">
+      <c r="A172" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B172" s="3">
+        <v>14</v>
+      </c>
+      <c r="C172" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1">
+      <c r="A173" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" s="3">
+        <v>15</v>
+      </c>
+      <c r="C173" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1">
+      <c r="A174" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B174" s="3">
+        <v>16</v>
+      </c>
+      <c r="C174" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1">
+      <c r="A175" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" s="3">
+        <v>22</v>
+      </c>
+      <c r="C175" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1">
+      <c r="A176" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B176" s="3">
+        <v>24</v>
+      </c>
+      <c r="C176" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1">
+      <c r="A177" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" s="3">
+        <v>26</v>
+      </c>
+      <c r="C177" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1">
+      <c r="A178" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" s="3">
+        <v>27</v>
+      </c>
+      <c r="C178" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1">
+      <c r="A179" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B179" s="3">
+        <v>29</v>
+      </c>
+      <c r="C179" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1">
+      <c r="A180" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B180" s="3">
+        <v>30</v>
+      </c>
+      <c r="C180" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1">
+      <c r="A181" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B181" s="3">
+        <v>31</v>
+      </c>
+      <c r="C181" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1">
+      <c r="A182" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B182" s="3">
+        <v>33</v>
+      </c>
+      <c r="C182" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1">
+      <c r="A183" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B183" s="3">
+        <v>36</v>
+      </c>
+      <c r="C183" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1">
+      <c r="A184" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B184" s="3">
+        <v>38</v>
+      </c>
+      <c r="C184" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1">
+      <c r="A185" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B185" s="3">
+        <v>39</v>
+      </c>
+      <c r="C185" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1">
+      <c r="A186" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B186" s="3">
+        <v>41</v>
+      </c>
+      <c r="C186" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1">
+      <c r="A187" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B187" s="3">
+        <v>43</v>
+      </c>
+      <c r="C187" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1">
+      <c r="A188" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B188" s="3">
+        <v>48</v>
+      </c>
+      <c r="C188" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1">
+      <c r="A189" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B189" s="3">
+        <v>51</v>
+      </c>
+      <c r="C189" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1">
+      <c r="A190" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B190" s="3">
+        <v>52</v>
+      </c>
+      <c r="C190" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1">
+      <c r="A191" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="3">
+        <v>57</v>
+      </c>
+      <c r="C191" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1">
+      <c r="A192" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" s="3">
+        <v>58</v>
+      </c>
+      <c r="C192" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1">
+      <c r="A193" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B193" s="3">
+        <v>59</v>
+      </c>
+      <c r="C193" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" customHeight="1">
+      <c r="A194" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B194" s="3">
+        <v>60</v>
+      </c>
+      <c r="C194" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/dictionaries/outcome/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/outcome/1_0/1_0_yearly_repeated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/outcome/1_0/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E143C96-4D9C-F74E-A885-ABFA301722B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2796" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2800" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="303">
   <si>
     <t>name</t>
   </si>
@@ -921,13 +927,16 @@
   </si>
   <si>
     <t>SVF</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -963,6 +972,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1044,9 +1054,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1439,7 +1449,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1483,7 +1493,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1504,22 +1514,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG107"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D107"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1598,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1602,111 +1612,123 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:59" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1">
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1">
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1">
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1">
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1720,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1">
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1">
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1748,7 +1770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1">
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1">
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -1776,7 +1798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1">
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1790,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1818,31 +1840,35 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1856,67 +1882,77 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>71</v>
       </c>
@@ -1930,7 +1966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
@@ -1944,7 +1980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>74</v>
       </c>
@@ -1958,7 +1994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>76</v>
       </c>
@@ -1972,43 +2008,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>84</v>
       </c>
@@ -2022,7 +2064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>86</v>
       </c>
@@ -2036,7 +2078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>89</v>
       </c>
@@ -2050,7 +2092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -2064,7 +2106,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
@@ -2078,7 +2120,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>95</v>
       </c>
@@ -2092,7 +2134,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>97</v>
       </c>
@@ -2106,7 +2148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
@@ -2120,7 +2162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>101</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>103</v>
       </c>
@@ -2148,7 +2190,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>105</v>
       </c>
@@ -2162,7 +2204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>107</v>
       </c>
@@ -2176,7 +2218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>109</v>
       </c>
@@ -2190,7 +2232,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>111</v>
       </c>
@@ -2204,7 +2246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>113</v>
       </c>
@@ -2218,7 +2260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>115</v>
       </c>
@@ -2232,7 +2274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>117</v>
       </c>
@@ -2246,7 +2288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>119</v>
       </c>
@@ -2260,7 +2302,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>121</v>
       </c>
@@ -2274,7 +2316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>123</v>
       </c>
@@ -2288,7 +2330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>125</v>
       </c>
@@ -2302,7 +2344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>127</v>
       </c>
@@ -2316,7 +2358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
@@ -2330,7 +2372,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>131</v>
       </c>
@@ -2344,7 +2386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>133</v>
       </c>
@@ -2358,7 +2400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>135</v>
       </c>
@@ -2372,7 +2414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>137</v>
       </c>
@@ -2386,7 +2428,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>139</v>
       </c>
@@ -2400,7 +2442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>141</v>
       </c>
@@ -2414,7 +2456,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>143</v>
       </c>
@@ -2428,7 +2470,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>145</v>
       </c>
@@ -2442,7 +2484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>147</v>
       </c>
@@ -2456,7 +2498,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>149</v>
       </c>
@@ -2470,7 +2512,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>151</v>
       </c>
@@ -2484,7 +2526,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>153</v>
       </c>
@@ -2498,7 +2540,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>155</v>
       </c>
@@ -2512,7 +2554,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>157</v>
       </c>
@@ -2526,7 +2568,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>159</v>
       </c>
@@ -2540,7 +2582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>161</v>
       </c>
@@ -2554,7 +2596,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>163</v>
       </c>
@@ -2568,7 +2610,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>165</v>
       </c>
@@ -2582,7 +2624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>167</v>
       </c>
@@ -2596,7 +2638,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>169</v>
       </c>
@@ -2610,7 +2652,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>171</v>
       </c>
@@ -2624,7 +2666,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>173</v>
       </c>
@@ -2638,7 +2680,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>175</v>
       </c>
@@ -2652,7 +2694,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>177</v>
       </c>
@@ -2666,7 +2708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>179</v>
       </c>
@@ -2680,7 +2722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>181</v>
       </c>
@@ -2694,7 +2736,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>183</v>
       </c>
@@ -2708,7 +2750,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>185</v>
       </c>
@@ -2722,7 +2764,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>187</v>
       </c>
@@ -2736,7 +2778,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>189</v>
       </c>
@@ -2750,7 +2792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>191</v>
       </c>
@@ -2764,7 +2806,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>193</v>
       </c>
@@ -2778,7 +2820,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>195</v>
       </c>
@@ -2792,7 +2834,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>197</v>
       </c>
@@ -2806,7 +2848,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>199</v>
       </c>
@@ -2820,7 +2862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>201</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>203</v>
       </c>
@@ -2848,7 +2890,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>205</v>
       </c>
@@ -2862,7 +2904,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>207</v>
       </c>
@@ -2876,7 +2918,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>209</v>
       </c>
@@ -2890,7 +2932,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>211</v>
       </c>
@@ -2904,7 +2946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>213</v>
       </c>
@@ -2918,7 +2960,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>215</v>
       </c>
@@ -2932,7 +2974,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>217</v>
       </c>
@@ -2946,7 +2988,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>219</v>
       </c>
@@ -2960,7 +3002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>221</v>
       </c>
@@ -2974,7 +3016,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>223</v>
       </c>
@@ -2988,7 +3030,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>225</v>
       </c>
@@ -3002,7 +3044,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>227</v>
       </c>
@@ -3016,7 +3058,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>229</v>
       </c>
@@ -3030,7 +3072,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>231</v>
       </c>
@@ -3055,21 +3097,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -3083,7 +3125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3097,7 +3139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3111,7 +3153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -3125,7 +3167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -3139,7 +3181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -3153,7 +3195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3167,7 +3209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3181,7 +3223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -3209,7 +3251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -3223,7 +3265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -3237,7 +3279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -3251,7 +3293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -3265,7 +3307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -3279,7 +3321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -3293,7 +3335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -3307,7 +3349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -3321,7 +3363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -3335,7 +3377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -3349,7 +3391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -3363,7 +3405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -3377,7 +3419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3391,7 +3433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -3405,7 +3447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -3419,7 +3461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -3433,7 +3475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -3447,7 +3489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -3461,7 +3503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -3475,7 +3517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -3503,7 +3545,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3517,7 +3559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -3531,7 +3573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>91</v>
       </c>
@@ -3545,7 +3587,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -3559,7 +3601,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>91</v>
       </c>
@@ -3573,7 +3615,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
@@ -3587,7 +3629,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
@@ -3601,7 +3643,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>89</v>
       </c>
@@ -3615,7 +3657,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -3629,7 +3671,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
@@ -3643,7 +3685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
@@ -3657,7 +3699,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>105</v>
       </c>
@@ -3671,7 +3713,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>105</v>
       </c>
@@ -3685,7 +3727,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>105</v>
       </c>
@@ -3699,7 +3741,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
@@ -3713,7 +3755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
@@ -3727,7 +3769,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>105</v>
       </c>
@@ -3741,7 +3783,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>103</v>
       </c>
@@ -3755,7 +3797,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>103</v>
       </c>
@@ -3769,7 +3811,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -3783,7 +3825,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>103</v>
       </c>
@@ -3797,7 +3839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>103</v>
       </c>
@@ -3811,7 +3853,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>103</v>
       </c>
@@ -3825,7 +3867,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>119</v>
       </c>
@@ -3839,7 +3881,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>119</v>
       </c>
@@ -3853,7 +3895,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>119</v>
       </c>
@@ -3867,7 +3909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>119</v>
       </c>
@@ -3881,7 +3923,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>119</v>
       </c>
@@ -3895,7 +3937,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>119</v>
       </c>
@@ -3909,7 +3951,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
@@ -3923,7 +3965,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>117</v>
       </c>
@@ -3937,7 +3979,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>117</v>
       </c>
@@ -3951,7 +3993,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>117</v>
       </c>
@@ -3965,7 +4007,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>117</v>
       </c>
@@ -3979,7 +4021,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>127</v>
       </c>
@@ -3993,7 +4035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>127</v>
       </c>
@@ -4007,7 +4049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>131</v>
       </c>
@@ -4021,7 +4063,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>131</v>
       </c>
@@ -4035,7 +4077,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>139</v>
       </c>
@@ -4049,7 +4091,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>139</v>
       </c>
@@ -4063,7 +4105,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>139</v>
       </c>
@@ -4077,7 +4119,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>139</v>
       </c>
@@ -4091,7 +4133,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>139</v>
       </c>
@@ -4105,7 +4147,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>139</v>
       </c>
@@ -4119,7 +4161,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>137</v>
       </c>
@@ -4133,7 +4175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>137</v>
       </c>
@@ -4147,7 +4189,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>137</v>
       </c>
@@ -4161,7 +4203,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>137</v>
       </c>
@@ -4175,7 +4217,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>137</v>
       </c>
@@ -4189,7 +4231,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>137</v>
       </c>
@@ -4203,7 +4245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>137</v>
       </c>
@@ -4217,7 +4259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>137</v>
       </c>
@@ -4231,7 +4273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>147</v>
       </c>
@@ -4245,7 +4287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>147</v>
       </c>
@@ -4259,7 +4301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>151</v>
       </c>
@@ -4273,7 +4315,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>151</v>
       </c>
@@ -4287,7 +4329,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>159</v>
       </c>
@@ -4301,7 +4343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>159</v>
       </c>
@@ -4315,7 +4357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>159</v>
       </c>
@@ -4329,7 +4371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>159</v>
       </c>
@@ -4343,7 +4385,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>159</v>
       </c>
@@ -4357,7 +4399,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>159</v>
       </c>
@@ -4371,7 +4413,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>157</v>
       </c>
@@ -4385,7 +4427,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -4399,7 +4441,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>157</v>
       </c>
@@ -4413,7 +4455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>157</v>
       </c>
@@ -4427,7 +4469,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>157</v>
       </c>
@@ -4441,7 +4483,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>157</v>
       </c>
@@ -4455,7 +4497,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>157</v>
       </c>
@@ -4469,7 +4511,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>157</v>
       </c>
@@ -4483,7 +4525,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>157</v>
       </c>
@@ -4497,7 +4539,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>157</v>
       </c>
@@ -4511,7 +4553,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>157</v>
       </c>
@@ -4525,7 +4567,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>157</v>
       </c>
@@ -4539,7 +4581,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>157</v>
       </c>
@@ -4553,7 +4595,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
@@ -4567,7 +4609,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>175</v>
       </c>
@@ -4581,7 +4623,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>175</v>
       </c>
@@ -4595,7 +4637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>175</v>
       </c>
@@ -4609,7 +4651,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>175</v>
       </c>
@@ -4623,7 +4665,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>175</v>
       </c>
@@ -4637,7 +4679,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>175</v>
       </c>
@@ -4651,7 +4693,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>173</v>
       </c>
@@ -4665,7 +4707,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>173</v>
       </c>
@@ -4679,7 +4721,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>173</v>
       </c>
@@ -4693,7 +4735,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>173</v>
       </c>
@@ -4707,7 +4749,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>173</v>
       </c>
@@ -4721,7 +4763,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>173</v>
       </c>
@@ -4735,7 +4777,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>173</v>
       </c>
@@ -4749,7 +4791,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>173</v>
       </c>
@@ -4763,7 +4805,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>173</v>
       </c>
@@ -4777,7 +4819,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>173</v>
       </c>
@@ -4791,7 +4833,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>173</v>
       </c>
@@ -4805,7 +4847,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>173</v>
       </c>
@@ -4819,7 +4861,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>173</v>
       </c>
@@ -4833,7 +4875,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>173</v>
       </c>
@@ -4847,7 +4889,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>173</v>
       </c>
@@ -4861,7 +4903,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>173</v>
       </c>
@@ -4875,7 +4917,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>173</v>
       </c>
@@ -4889,7 +4931,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>191</v>
       </c>
@@ -4903,7 +4945,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>191</v>
       </c>
@@ -4917,7 +4959,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>191</v>
       </c>
@@ -4931,7 +4973,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>191</v>
       </c>
@@ -4945,7 +4987,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>191</v>
       </c>
@@ -4959,7 +5001,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>191</v>
       </c>
@@ -4973,7 +5015,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>189</v>
       </c>
@@ -4987,7 +5029,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>189</v>
       </c>
@@ -5001,7 +5043,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>189</v>
       </c>
@@ -5015,7 +5057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>189</v>
       </c>
@@ -5029,7 +5071,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>189</v>
       </c>
@@ -5043,7 +5085,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>189</v>
       </c>
@@ -5057,7 +5099,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>189</v>
       </c>
@@ -5071,7 +5113,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>189</v>
       </c>
@@ -5085,7 +5127,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>189</v>
       </c>
@@ -5099,7 +5141,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>189</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>189</v>
       </c>
@@ -5127,7 +5169,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>189</v>
       </c>
@@ -5141,7 +5183,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>189</v>
       </c>
@@ -5155,7 +5197,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>189</v>
       </c>
@@ -5169,7 +5211,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>207</v>
       </c>
@@ -5183,7 +5225,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>207</v>
       </c>
@@ -5197,7 +5239,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>207</v>
       </c>
@@ -5211,7 +5253,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>207</v>
       </c>
@@ -5225,7 +5267,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>207</v>
       </c>
@@ -5239,7 +5281,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>207</v>
       </c>
@@ -5253,7 +5295,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>205</v>
       </c>
@@ -5267,7 +5309,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>205</v>
       </c>
@@ -5281,7 +5323,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>223</v>
       </c>
@@ -5295,7 +5337,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>223</v>
       </c>
@@ -5309,7 +5351,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>223</v>
       </c>
@@ -5323,7 +5365,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>223</v>
       </c>
@@ -5337,7 +5379,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>223</v>
       </c>
@@ -5351,7 +5393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>223</v>
       </c>
@@ -5365,7 +5407,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>221</v>
       </c>
@@ -5379,7 +5421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>221</v>
       </c>
@@ -5393,7 +5435,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>221</v>
       </c>
@@ -5407,7 +5449,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>221</v>
       </c>
@@ -5421,7 +5463,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>221</v>
       </c>
@@ -5435,7 +5477,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>221</v>
       </c>
@@ -5449,7 +5491,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>221</v>
       </c>
@@ -5463,7 +5505,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>221</v>
       </c>
@@ -5477,7 +5519,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>221</v>
       </c>
@@ -5491,7 +5533,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>221</v>
       </c>
@@ -5505,7 +5547,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>221</v>
       </c>
@@ -5519,7 +5561,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>221</v>
       </c>
@@ -5533,7 +5575,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>221</v>
       </c>
@@ -5547,7 +5589,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>221</v>
       </c>
@@ -5561,7 +5603,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>221</v>
       </c>
@@ -5575,7 +5617,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>221</v>
       </c>
@@ -5589,7 +5631,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>221</v>
       </c>
@@ -5603,7 +5645,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>221</v>
       </c>
@@ -5617,7 +5659,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>221</v>
       </c>
@@ -5631,7 +5673,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>221</v>
       </c>
@@ -5645,7 +5687,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>221</v>
       </c>
@@ -5659,7 +5701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>221</v>
       </c>
@@ -5673,7 +5715,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>221</v>
       </c>
@@ -5687,7 +5729,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>221</v>
       </c>
@@ -5701,7 +5743,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>221</v>
       </c>
@@ -5715,7 +5757,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>221</v>
       </c>
@@ -5729,7 +5771,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>221</v>
       </c>
@@ -5743,7 +5785,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>221</v>
       </c>
@@ -5757,7 +5799,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>221</v>
       </c>
@@ -5771,7 +5813,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>221</v>
       </c>
